--- a/src/main/resources/keywords.xlsx
+++ b/src/main/resources/keywords.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A4729-C472-E945-97CB-B052D3169F86}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,224 +25,221 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">equipo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad Católica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">franja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cruzados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monjas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">secundones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unión La Calera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cementeros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colo-Colo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el colo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">albos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cacique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eterno campeon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unión Española</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hispanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rojos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O'Higgins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">celestes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audax Italiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tricolores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arabes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ruleteros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guata amarilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ever forever</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oro y cielo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auriazules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huachipato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acereros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportes Iquique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dragones celestes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Concepción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">campanil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportes Antofagasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pumas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobresal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mineros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">león</t>
-  </si>
-  <si>
-    <t xml:space="preserve">romántico viajero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bullita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">azules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jugador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Buonanotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Pedro Fuenzalida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapa fuenzalida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Manuel Insaurralde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chaco insaurralde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Óscar Opazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">torta opazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Valdivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mago valdivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Valdés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pajarito valdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el tanque paredes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+  <si>
+    <t>equipo</t>
+  </si>
+  <si>
+    <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>franja</t>
+  </si>
+  <si>
+    <t>cruzados</t>
+  </si>
+  <si>
+    <t>monjas</t>
+  </si>
+  <si>
+    <t>secundones</t>
+  </si>
+  <si>
+    <t>Unión La Calera</t>
+  </si>
+  <si>
+    <t>cementeros</t>
+  </si>
+  <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
+    <t>el colo</t>
+  </si>
+  <si>
+    <t>arbo</t>
+  </si>
+  <si>
+    <t>albos</t>
+  </si>
+  <si>
+    <t>cacique</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>eterno campeon</t>
+  </si>
+  <si>
+    <t>Unión Española</t>
+  </si>
+  <si>
+    <t>hispanos</t>
+  </si>
+  <si>
+    <t>rojos</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>celestes</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>italicos</t>
+  </si>
+  <si>
+    <t>audinos</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>tricolores</t>
+  </si>
+  <si>
+    <t>arabes</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>ruleteros</t>
+  </si>
+  <si>
+    <t>guata amarilla</t>
+  </si>
+  <si>
+    <t>ever forever</t>
+  </si>
+  <si>
+    <t>oro y cielo</t>
+  </si>
+  <si>
+    <t>auriazules</t>
+  </si>
+  <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>acereros</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>dragones celestes</t>
+  </si>
+  <si>
+    <t>Universidad de Concepción</t>
+  </si>
+  <si>
+    <t>campanil</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>pumas</t>
+  </si>
+  <si>
+    <t>Cobresal</t>
+  </si>
+  <si>
+    <t>mineros</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>león</t>
+  </si>
+  <si>
+    <t>romántico viajero</t>
+  </si>
+  <si>
+    <t>bulla</t>
+  </si>
+  <si>
+    <t>bullita</t>
+  </si>
+  <si>
+    <t>azules</t>
+  </si>
+  <si>
+    <t>jugador</t>
+  </si>
+  <si>
+    <t>Diego Buonanotte</t>
+  </si>
+  <si>
+    <t>enano</t>
+  </si>
+  <si>
+    <t>José Pedro Fuenzalida</t>
+  </si>
+  <si>
+    <t>chapa fuenzalida</t>
+  </si>
+  <si>
+    <t>Juan Manuel Insaurralde</t>
+  </si>
+  <si>
+    <t>chaco insaurralde</t>
+  </si>
+  <si>
+    <t>Óscar Opazo</t>
+  </si>
+  <si>
+    <t>torta opazo</t>
+  </si>
+  <si>
+    <t>Jorge Valdivia</t>
+  </si>
+  <si>
+    <t>mago valdivia</t>
+  </si>
+  <si>
+    <t>Jaime Valdés</t>
+  </si>
+  <si>
+    <t>pajarito valdes</t>
+  </si>
+  <si>
+    <t>Esteban Paredes</t>
+  </si>
+  <si>
+    <t>el tanque paredes</t>
+  </si>
+  <si>
+    <t>Coquimbo Unido</t>
+  </si>
+  <si>
+    <t>coquimbo</t>
+  </si>
+  <si>
+    <t>Curicó Unido</t>
+  </si>
+  <si>
+    <t>curico</t>
+  </si>
+  <si>
+    <t>curicó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -274,7 +276,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -282,88 +284,347 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col min="1" max="1" width="11.5"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -374,7 +635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,7 +646,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +789,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -561,7 +822,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,7 +833,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -583,7 +844,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,7 +855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -607,7 +868,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -620,7 +881,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -633,7 +894,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,7 +907,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,7 +920,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,7 +933,7 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -685,7 +946,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -698,7 +959,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -711,7 +972,7 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -724,7 +985,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,7 +998,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,7 +1011,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -763,7 +1024,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
@@ -776,7 +1037,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>48</v>
       </c>
@@ -789,7 +1050,7 @@
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>48</v>
       </c>
@@ -802,7 +1063,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -815,7 +1076,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
@@ -828,7 +1089,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -841,91 +1102,43 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>

--- a/src/main/resources/keywords.xlsx
+++ b/src/main/resources/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A4729-C472-E945-97CB-B052D3169F86}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B581B678-ECA8-4B46-A053-5741B1E1A6B4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="704">
   <si>
     <t>equipo</t>
   </si>
@@ -229,13 +229,1921 @@
   </si>
   <si>
     <t>curicó</t>
+  </si>
+  <si>
+    <t>Matías Dituro</t>
+  </si>
+  <si>
+    <t>Cristopher Toselli</t>
+  </si>
+  <si>
+    <t>German Lanaro</t>
+  </si>
+  <si>
+    <t>Vicente Fernández</t>
+  </si>
+  <si>
+    <t>Valber Huerta</t>
+  </si>
+  <si>
+    <t>Benjamín Kuscevic</t>
+  </si>
+  <si>
+    <t>Yerco Oyanedel</t>
+  </si>
+  <si>
+    <t>Juan Cornejo</t>
+  </si>
+  <si>
+    <t>Juan Carlos Espinoza</t>
+  </si>
+  <si>
+    <t>Benjamin Vidal</t>
+  </si>
+  <si>
+    <t>Stefano Magnasco</t>
+  </si>
+  <si>
+    <t>César Fuentes</t>
+  </si>
+  <si>
+    <t>Jaime Carreño</t>
+  </si>
+  <si>
+    <t>Diego Rojas</t>
+  </si>
+  <si>
+    <t>César Pinares</t>
+  </si>
+  <si>
+    <t>Carlos Lobos</t>
+  </si>
+  <si>
+    <t>Luciano Aued</t>
+  </si>
+  <si>
+    <t>Ignacio Saavedra</t>
+  </si>
+  <si>
+    <t>Sebastián Sáez</t>
+  </si>
+  <si>
+    <t>Edson Puch</t>
+  </si>
+  <si>
+    <t>Jeisson Vargas</t>
+  </si>
+  <si>
+    <t>Diego Valencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Giovini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Heredia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augusto Batalla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Alvarado </t>
+  </si>
+  <si>
+    <t>Matías Navarrete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Figueroa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Vilches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudio Meneses </t>
+  </si>
+  <si>
+    <t>Sebastián Leyton</t>
+  </si>
+  <si>
+    <t>Sebastián Zuñiga</t>
+  </si>
+  <si>
+    <t>Juan Leiva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Vásquez  </t>
+  </si>
+  <si>
+    <t>Douglas Estay</t>
+  </si>
+  <si>
+    <t>Thomas Rodríguez</t>
+  </si>
+  <si>
+    <t>Matías Álvarez</t>
+  </si>
+  <si>
+    <t>Fabián Manzano</t>
+  </si>
+  <si>
+    <t>Ángelo Quiñones</t>
+  </si>
+  <si>
+    <t>Marcelo Larrondo</t>
+  </si>
+  <si>
+    <t>Josepablo Monreal</t>
+  </si>
+  <si>
+    <t>Franco Lobos</t>
+  </si>
+  <si>
+    <t>Agustín Orión</t>
+  </si>
+  <si>
+    <t>Brayan Cortés</t>
+  </si>
+  <si>
+    <t>Matías Zaldivia</t>
+  </si>
+  <si>
+    <t>Julio Barroso</t>
+  </si>
+  <si>
+    <t>Benjamín Jerez</t>
+  </si>
+  <si>
+    <t>Ronald de la Fuente</t>
+  </si>
+  <si>
+    <t>Felipe Campos</t>
+  </si>
+  <si>
+    <t>Agustín Ortiz</t>
+  </si>
+  <si>
+    <t>Cristián Gutiérrez</t>
+  </si>
+  <si>
+    <t>Williams Alarcón</t>
+  </si>
+  <si>
+    <t>Esteban Pavez</t>
+  </si>
+  <si>
+    <t>Carlos Carmona</t>
+  </si>
+  <si>
+    <t>Gabriel Suazo</t>
+  </si>
+  <si>
+    <t>Branco Provoste</t>
+  </si>
+  <si>
+    <t>Gabriel Costa</t>
+  </si>
+  <si>
+    <t>Andrés Vilches</t>
+  </si>
+  <si>
+    <t>Marcos Bolados</t>
+  </si>
+  <si>
+    <t>Pablo Mouche</t>
+  </si>
+  <si>
+    <t>Iván Morales</t>
+  </si>
+  <si>
+    <t>Javier Parraguez</t>
+  </si>
+  <si>
+    <t>Juan José Echave</t>
+  </si>
+  <si>
+    <t>Diego Sánchez</t>
+  </si>
+  <si>
+    <t>Cristian Guerra</t>
+  </si>
+  <si>
+    <t>Mauro Maureira</t>
+  </si>
+  <si>
+    <t>Luis Pavez</t>
+  </si>
+  <si>
+    <t>Mario Larenas</t>
+  </si>
+  <si>
+    <t>Thomas Galdames</t>
+  </si>
+  <si>
+    <t>Felipe Seymour</t>
+  </si>
+  <si>
+    <t>Juan Pablo Gómez</t>
+  </si>
+  <si>
+    <t>Misael Dávila</t>
+  </si>
+  <si>
+    <t>Luis Pavez Contreras</t>
+  </si>
+  <si>
+    <t>Pablo Aránguiz</t>
+  </si>
+  <si>
+    <t>Rodrigo González</t>
+  </si>
+  <si>
+    <t>Benjamín Galdames</t>
+  </si>
+  <si>
+    <t>Mauro Caballero</t>
+  </si>
+  <si>
+    <t>José Luis Sierra</t>
+  </si>
+  <si>
+    <t>David Llanos</t>
+  </si>
+  <si>
+    <t>Gary Tello</t>
+  </si>
+  <si>
+    <t>Miguel Pinto</t>
+  </si>
+  <si>
+    <t>Rodrigo Yáñez</t>
+  </si>
+  <si>
+    <t>Tomás Alarcón</t>
+  </si>
+  <si>
+    <t>Albert Acevedo</t>
+  </si>
+  <si>
+    <t>Paulo Magalhaes</t>
+  </si>
+  <si>
+    <t>Roberto Cereceda</t>
+  </si>
+  <si>
+    <t>Raúl Osorio</t>
+  </si>
+  <si>
+    <t>Brian Torrealba</t>
+  </si>
+  <si>
+    <t>Gastón Zúñiga</t>
+  </si>
+  <si>
+    <t>Alejandro Contreras</t>
+  </si>
+  <si>
+    <t>Juan Fuentes</t>
+  </si>
+  <si>
+    <t>Ramón Fernández</t>
+  </si>
+  <si>
+    <t>Diego González</t>
+  </si>
+  <si>
+    <t>Yerko González</t>
+  </si>
+  <si>
+    <t>Matías Sepúlveda</t>
+  </si>
+  <si>
+    <t>José Luis Muñoz</t>
+  </si>
+  <si>
+    <t>Maximiliano Salas</t>
+  </si>
+  <si>
+    <t>Matías Meneses</t>
+  </si>
+  <si>
+    <t>Lucas Fierro</t>
+  </si>
+  <si>
+    <t>Eryin Sanhueza</t>
+  </si>
+  <si>
+    <t>Joaquín García</t>
+  </si>
+  <si>
+    <t>Carlos Labrín</t>
+  </si>
+  <si>
+    <t>Manuel Fernández</t>
+  </si>
+  <si>
+    <t>Osvaldo Bosso</t>
+  </si>
+  <si>
+    <t>Fabián Torres</t>
+  </si>
+  <si>
+    <t>Nicolás Crovetto</t>
+  </si>
+  <si>
+    <t>Nicolás Fernández</t>
+  </si>
+  <si>
+    <t>Ricardo Escobar</t>
+  </si>
+  <si>
+    <t>Cristóbal Muñoz</t>
+  </si>
+  <si>
+    <t>Diego Torres</t>
+  </si>
+  <si>
+    <t>René Meléndez</t>
+  </si>
+  <si>
+    <t>Iván Vásquez</t>
+  </si>
+  <si>
+    <t>Ariel Martinez</t>
+  </si>
+  <si>
+    <t>Jorge Henríquez</t>
+  </si>
+  <si>
+    <t>Iván Ledezma</t>
+  </si>
+  <si>
+    <t>Ricardo Fuenzalida</t>
+  </si>
+  <si>
+    <t>Luis Cabrera</t>
+  </si>
+  <si>
+    <t>Cristóbal Marín</t>
+  </si>
+  <si>
+    <t>Matías Cano</t>
+  </si>
+  <si>
+    <t>Daniel Retamal</t>
+  </si>
+  <si>
+    <t>Nicolás Berardo</t>
+  </si>
+  <si>
+    <t>Washington Torres</t>
+  </si>
+  <si>
+    <t>Sebastián Silva</t>
+  </si>
+  <si>
+    <t>Daniel Vicencio</t>
+  </si>
+  <si>
+    <t>Diego Oyarzún</t>
+  </si>
+  <si>
+    <t>Jaime Soto</t>
+  </si>
+  <si>
+    <t>Ulises Castagnoli</t>
+  </si>
+  <si>
+    <t>Fernando Cornejo</t>
+  </si>
+  <si>
+    <t>Sebastián Galani</t>
+  </si>
+  <si>
+    <t>Gerardo Navarrete</t>
+  </si>
+  <si>
+    <t>Diego Aravena</t>
+  </si>
+  <si>
+    <t>Cristián Canío</t>
+  </si>
+  <si>
+    <t>Jean Paul Pineda</t>
+  </si>
+  <si>
+    <t>Mauricio Pinilla</t>
+  </si>
+  <si>
+    <t>Ruben Farfán</t>
+  </si>
+  <si>
+    <t>Jonathan Benítez</t>
+  </si>
+  <si>
+    <t>Jorge Deschamps</t>
+  </si>
+  <si>
+    <t>Tomás Vergara</t>
+  </si>
+  <si>
+    <t>Diego Tapia</t>
+  </si>
+  <si>
+    <t>Luis Santelices</t>
+  </si>
+  <si>
+    <t>Felipe Saavedra</t>
+  </si>
+  <si>
+    <t>Yerson Opazo</t>
+  </si>
+  <si>
+    <t>Nelson Rebolledo</t>
+  </si>
+  <si>
+    <t>Daniel Franco</t>
+  </si>
+  <si>
+    <t>Francisco Silva</t>
+  </si>
+  <si>
+    <t>Kevin Martínez</t>
+  </si>
+  <si>
+    <t>Carlos Espinosa</t>
+  </si>
+  <si>
+    <t>Héber García</t>
+  </si>
+  <si>
+    <t>Martín Cortés</t>
+  </si>
+  <si>
+    <t>Gonzalo Bustamante</t>
+  </si>
+  <si>
+    <t>Francisco Rivera</t>
+  </si>
+  <si>
+    <t>Diego Urzúa</t>
+  </si>
+  <si>
+    <t>Mauro Quiroga</t>
+  </si>
+  <si>
+    <t>Diego Vallejos</t>
+  </si>
+  <si>
+    <t>Sebastián Jaime</t>
+  </si>
+  <si>
+    <t>Gabriel Vargas</t>
+  </si>
+  <si>
+    <t>Matías Cavalleri</t>
+  </si>
+  <si>
+    <t>Ignacio González</t>
+  </si>
+  <si>
+    <t>Matías Borquez</t>
+  </si>
+  <si>
+    <t>Danie Murillo</t>
+  </si>
+  <si>
+    <t>Alejandro González</t>
+  </si>
+  <si>
+    <t>Byron Guajardo</t>
+  </si>
+  <si>
+    <t>Luis del Pino</t>
+  </si>
+  <si>
+    <t>Enzo Guerrero</t>
+  </si>
+  <si>
+    <t>Ignacio Ayala</t>
+  </si>
+  <si>
+    <t>Jorge Araya</t>
+  </si>
+  <si>
+    <t>Julián Fernández</t>
+  </si>
+  <si>
+    <t>Diego Rosende</t>
+  </si>
+  <si>
+    <t>Cristobal Jorquera</t>
+  </si>
+  <si>
+    <t>Luis Jiménez</t>
+  </si>
+  <si>
+    <t>César Cortés</t>
+  </si>
+  <si>
+    <t>Santiago Lizana</t>
+  </si>
+  <si>
+    <t>Brayan Véjar</t>
+  </si>
+  <si>
+    <t>Agustín Farías</t>
+  </si>
+  <si>
+    <t>Lucas Passerini</t>
+  </si>
+  <si>
+    <t>Richard Paredes</t>
+  </si>
+  <si>
+    <t>Nicolás Zedan</t>
+  </si>
+  <si>
+    <t>Yerko Rojas</t>
+  </si>
+  <si>
+    <t>Roberto Gutiérrez</t>
+  </si>
+  <si>
+    <t>Camilo Rozas</t>
+  </si>
+  <si>
+    <t>Jorge Peña</t>
+  </si>
+  <si>
+    <t>Álex Ibacache</t>
+  </si>
+  <si>
+    <t>Bastián San Juan</t>
+  </si>
+  <si>
+    <t>Lucas Domínguez</t>
+  </si>
+  <si>
+    <t>Cristián Suárez</t>
+  </si>
+  <si>
+    <t>Joaquín López</t>
+  </si>
+  <si>
+    <t>Sebastián Pereira</t>
+  </si>
+  <si>
+    <t>Alejandro Henríquez</t>
+  </si>
+  <si>
+    <t>Camilo Rodríguez</t>
+  </si>
+  <si>
+    <t>Gonzalo Freitas</t>
+  </si>
+  <si>
+    <t>Fernando Arismendi</t>
+  </si>
+  <si>
+    <t>Franco Ragusa</t>
+  </si>
+  <si>
+    <t>Diego Orellana</t>
+  </si>
+  <si>
+    <t>Benjamín Berríos</t>
+  </si>
+  <si>
+    <t>Maximiliano Ceratto</t>
+  </si>
+  <si>
+    <t>Álvaro Ramos</t>
+  </si>
+  <si>
+    <t>Isaac Díaz</t>
+  </si>
+  <si>
+    <t>Sergio Vergara</t>
+  </si>
+  <si>
+    <t>Yerko Urra</t>
+  </si>
+  <si>
+    <t>Brayan Manosalva</t>
+  </si>
+  <si>
+    <t>Gabriel Castellón</t>
+  </si>
+  <si>
+    <t>Ignacio Tapia</t>
+  </si>
+  <si>
+    <t>José Rojas</t>
+  </si>
+  <si>
+    <t>Claudio Jopia</t>
+  </si>
+  <si>
+    <t>Juan Córdova</t>
+  </si>
+  <si>
+    <t>José Bizama</t>
+  </si>
+  <si>
+    <t>Federico Pereyra</t>
+  </si>
+  <si>
+    <t>Ramón Sáez</t>
+  </si>
+  <si>
+    <t>Claudio Sepúlveda</t>
+  </si>
+  <si>
+    <t>César Valenzuela</t>
+  </si>
+  <si>
+    <t>Sebastián Martínez</t>
+  </si>
+  <si>
+    <t>Nicolás Baeza</t>
+  </si>
+  <si>
+    <t>Mathías López</t>
+  </si>
+  <si>
+    <t>Nicolás Silva</t>
+  </si>
+  <si>
+    <t>Cris Martínez</t>
+  </si>
+  <si>
+    <t>Kevin Baeza</t>
+  </si>
+  <si>
+    <t>Felipe Barrientos</t>
+  </si>
+  <si>
+    <t>Martín Sánchez</t>
+  </si>
+  <si>
+    <t>Mauricio Godoy</t>
+  </si>
+  <si>
+    <t>Maximiliano Rodríguez</t>
+  </si>
+  <si>
+    <t>Rodrigo Naranjo</t>
+  </si>
+  <si>
+    <t>Sebastián Pérez</t>
+  </si>
+  <si>
+    <t>Matías Blásquez</t>
+  </si>
+  <si>
+    <t>Abel Hidalgo</t>
+  </si>
+  <si>
+    <t>Mauricio Zenteno</t>
+  </si>
+  <si>
+    <t>Hans Salinas</t>
+  </si>
+  <si>
+    <t>Manuel Bravo</t>
+  </si>
+  <si>
+    <t>Andres Imperiale</t>
+  </si>
+  <si>
+    <t>Héctor Berrios</t>
+  </si>
+  <si>
+    <t>Alan Moreno</t>
+  </si>
+  <si>
+    <t>Diego Fernández</t>
+  </si>
+  <si>
+    <t>Braulio Leal</t>
+  </si>
+  <si>
+    <t>José Cepeda</t>
+  </si>
+  <si>
+    <t>Rodrigo Castro</t>
+  </si>
+  <si>
+    <t>Wilson Piñones</t>
+  </si>
+  <si>
+    <t>Misael Cubillos</t>
+  </si>
+  <si>
+    <t>Camilo Gaínza</t>
+  </si>
+  <si>
+    <t>Matías Donoso</t>
+  </si>
+  <si>
+    <t>Óscar Salinas</t>
+  </si>
+  <si>
+    <t>Cristián Muñoz</t>
+  </si>
+  <si>
+    <t>Pablo Benítez</t>
+  </si>
+  <si>
+    <t>Álvaro Salazar</t>
+  </si>
+  <si>
+    <t>Hans Martínez</t>
+  </si>
+  <si>
+    <t>Fernando Cordero</t>
+  </si>
+  <si>
+    <t>Guillermo Pacheco</t>
+  </si>
+  <si>
+    <t>Víctor Retamal</t>
+  </si>
+  <si>
+    <t>Leandro Díaz</t>
+  </si>
+  <si>
+    <t>Alejandro Camargo</t>
+  </si>
+  <si>
+    <t>Luis Pedro Figueroa</t>
+  </si>
+  <si>
+    <t>Hugo Droguett</t>
+  </si>
+  <si>
+    <t>Fernando Manríquez</t>
+  </si>
+  <si>
+    <t>Patricio Rubio</t>
+  </si>
+  <si>
+    <t>Nicolás Maturana</t>
+  </si>
+  <si>
+    <t>José Huentelaf</t>
+  </si>
+  <si>
+    <t>Nicolás Orellana</t>
+  </si>
+  <si>
+    <t>Luis Riveros</t>
+  </si>
+  <si>
+    <t>Walter Ponce</t>
+  </si>
+  <si>
+    <t>Paulo Garcés</t>
+  </si>
+  <si>
+    <t>Fernando Hurtado</t>
+  </si>
+  <si>
+    <t>Nicolás Araya</t>
+  </si>
+  <si>
+    <t>Agustín Rossi</t>
+  </si>
+  <si>
+    <t>Branco Ampuero</t>
+  </si>
+  <si>
+    <t>Bruno Romo</t>
+  </si>
+  <si>
+    <t>Nicolás Peñailillo</t>
+  </si>
+  <si>
+    <t>Cristián Rojas</t>
+  </si>
+  <si>
+    <t>Tomás Asta-Buruaga</t>
+  </si>
+  <si>
+    <t>Gonzalo Fierro</t>
+  </si>
+  <si>
+    <t>Francisco Sepúlveda</t>
+  </si>
+  <si>
+    <t>Alejandro Delfino</t>
+  </si>
+  <si>
+    <t>Ricardo Blanco</t>
+  </si>
+  <si>
+    <t>Óscar Hernández</t>
+  </si>
+  <si>
+    <t>Franz Schultz</t>
+  </si>
+  <si>
+    <t>Gabriel Sandoval</t>
+  </si>
+  <si>
+    <t>Marco Collao</t>
+  </si>
+  <si>
+    <t>Michael Lepe</t>
+  </si>
+  <si>
+    <t>Jason Flores</t>
+  </si>
+  <si>
+    <t>Felipe Flores</t>
+  </si>
+  <si>
+    <t>José Bandez</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Sebastián López</t>
+  </si>
+  <si>
+    <t>Rodrigo Cabrera</t>
+  </si>
+  <si>
+    <t>Flavio Rojas</t>
+  </si>
+  <si>
+    <t>Juan Contreras</t>
+  </si>
+  <si>
+    <t>Rodolfo González</t>
+  </si>
+  <si>
+    <t>Eric Godoy</t>
+  </si>
+  <si>
+    <t>Marcelo Filla</t>
+  </si>
+  <si>
+    <t>Rodrigo Ureña</t>
+  </si>
+  <si>
+    <t>Juan Gutiérrez</t>
+  </si>
+  <si>
+    <t>Eduardo Farías</t>
+  </si>
+  <si>
+    <t>Ever Cantero</t>
+  </si>
+  <si>
+    <t>Felipe Reynero</t>
+  </si>
+  <si>
+    <t>Fabián Saavedra</t>
+  </si>
+  <si>
+    <t>Marcos Figueroa</t>
+  </si>
+  <si>
+    <t>Ronaldo Abarca</t>
+  </si>
+  <si>
+    <t>Nicholas Muñoz</t>
+  </si>
+  <si>
+    <t>Carlos Muñoz</t>
+  </si>
+  <si>
+    <t>Fernando de Paul</t>
+  </si>
+  <si>
+    <t>Jhonny Herrera</t>
+  </si>
+  <si>
+    <t>Sergio Vittor</t>
+  </si>
+  <si>
+    <t>Matías Rodríguez</t>
+  </si>
+  <si>
+    <t>Augusto Barrios</t>
+  </si>
+  <si>
+    <t>Lucas Alarcón</t>
+  </si>
+  <si>
+    <t>Rodrigo Echeverría</t>
+  </si>
+  <si>
+    <t>Matías Campos Toro</t>
+  </si>
+  <si>
+    <t>Jimmy Martínez</t>
+  </si>
+  <si>
+    <t>Nicolás Oroz</t>
+  </si>
+  <si>
+    <t>Jean Beausejour</t>
+  </si>
+  <si>
+    <t>Rafael Caroca</t>
+  </si>
+  <si>
+    <t>Gonzalo Espinoza</t>
+  </si>
+  <si>
+    <t>Iván Rozas</t>
+  </si>
+  <si>
+    <t>Leandro Benegas</t>
+  </si>
+  <si>
+    <t>Ángelo Henríquez</t>
+  </si>
+  <si>
+    <t>Sebastián Ubilla</t>
+  </si>
+  <si>
+    <t>Matías Campos López</t>
+  </si>
+  <si>
+    <t>Nicolás Guerra</t>
+  </si>
+  <si>
+    <t>matias dituro</t>
+  </si>
+  <si>
+    <t>cristopher</t>
+  </si>
+  <si>
+    <t>german lanaro</t>
+  </si>
+  <si>
+    <t>vicente fernandez</t>
+  </si>
+  <si>
+    <t>valber huerta</t>
+  </si>
+  <si>
+    <t>benjamin kuscevic</t>
+  </si>
+  <si>
+    <t>yerco oyanadel</t>
+  </si>
+  <si>
+    <t>juan cornejo</t>
+  </si>
+  <si>
+    <t>juan carlos</t>
+  </si>
+  <si>
+    <t>benjamin vidal</t>
+  </si>
+  <si>
+    <t>stefano magnasco</t>
+  </si>
+  <si>
+    <t>cesar fuentes</t>
+  </si>
+  <si>
+    <t>jaime carreño</t>
+  </si>
+  <si>
+    <t>diego rojas</t>
+  </si>
+  <si>
+    <t>cesar pinares</t>
+  </si>
+  <si>
+    <t>diego buonanotte</t>
+  </si>
+  <si>
+    <t>jose pedro</t>
+  </si>
+  <si>
+    <t>carlos lobos</t>
+  </si>
+  <si>
+    <t>luciano aued</t>
+  </si>
+  <si>
+    <t>ignacio saavedra</t>
+  </si>
+  <si>
+    <t>sebastian saez</t>
+  </si>
+  <si>
+    <t>edson</t>
+  </si>
+  <si>
+    <t>jeisson</t>
+  </si>
+  <si>
+    <t>diego valencia</t>
+  </si>
+  <si>
+    <t>lucas giovini</t>
+  </si>
+  <si>
+    <t>pablo hereia</t>
+  </si>
+  <si>
+    <t>augusto batalla</t>
+  </si>
+  <si>
+    <t>pablo alvarado</t>
+  </si>
+  <si>
+    <t>matias navarrete</t>
+  </si>
+  <si>
+    <t>erik</t>
+  </si>
+  <si>
+    <t>chirstian vilches</t>
+  </si>
+  <si>
+    <t>claudio maneses</t>
+  </si>
+  <si>
+    <t>sebastian leyton</t>
+  </si>
+  <si>
+    <t>sebastian zuñiga</t>
+  </si>
+  <si>
+    <t>juan leiva</t>
+  </si>
+  <si>
+    <t>kevin vasquez</t>
+  </si>
+  <si>
+    <t>douglas estay</t>
+  </si>
+  <si>
+    <t>thomas rodriguez</t>
+  </si>
+  <si>
+    <t>matias alvarez</t>
+  </si>
+  <si>
+    <t>fabian manzano</t>
+  </si>
+  <si>
+    <t>angelo quiñones</t>
+  </si>
+  <si>
+    <t>marcelo larrondo</t>
+  </si>
+  <si>
+    <t>josepablo</t>
+  </si>
+  <si>
+    <t>franco</t>
+  </si>
+  <si>
+    <t>agustin orion</t>
+  </si>
+  <si>
+    <t>brayan cortes</t>
+  </si>
+  <si>
+    <t>matias zaldivia</t>
+  </si>
+  <si>
+    <t>julio barroso</t>
+  </si>
+  <si>
+    <t>juan manuel</t>
+  </si>
+  <si>
+    <t>benjamin jerez</t>
+  </si>
+  <si>
+    <t>oscar opazo</t>
+  </si>
+  <si>
+    <t>ronald</t>
+  </si>
+  <si>
+    <t>felipe campos</t>
+  </si>
+  <si>
+    <t>agustin ortiz</t>
+  </si>
+  <si>
+    <t>cristian gutierrez</t>
+  </si>
+  <si>
+    <t>williams</t>
+  </si>
+  <si>
+    <t>esteba pavez</t>
+  </si>
+  <si>
+    <t>jorge valdivia</t>
+  </si>
+  <si>
+    <t>carlos carmona</t>
+  </si>
+  <si>
+    <t>gabriel suazo</t>
+  </si>
+  <si>
+    <t>jaime valdes</t>
+  </si>
+  <si>
+    <t>branco</t>
+  </si>
+  <si>
+    <t>gabriel costa</t>
+  </si>
+  <si>
+    <t>esteban paredes</t>
+  </si>
+  <si>
+    <t>andres vilches</t>
+  </si>
+  <si>
+    <t>marcos bolados</t>
+  </si>
+  <si>
+    <t>pablo mouche</t>
+  </si>
+  <si>
+    <t>ivan morales</t>
+  </si>
+  <si>
+    <t>javier parraguez</t>
+  </si>
+  <si>
+    <t>juan jose</t>
+  </si>
+  <si>
+    <t>diego sanchez</t>
+  </si>
+  <si>
+    <t>cristian guerra</t>
+  </si>
+  <si>
+    <t>mauro maureira</t>
+  </si>
+  <si>
+    <t>luis pavez</t>
+  </si>
+  <si>
+    <t>mario larenas</t>
+  </si>
+  <si>
+    <t>thomas galdames</t>
+  </si>
+  <si>
+    <t>seymour</t>
+  </si>
+  <si>
+    <t>juan pablo gomez</t>
+  </si>
+  <si>
+    <t>misael</t>
+  </si>
+  <si>
+    <t>luis pavez contreras</t>
+  </si>
+  <si>
+    <t>aranguiz</t>
+  </si>
+  <si>
+    <t>rodrigo gonzales</t>
+  </si>
+  <si>
+    <t>benjamin galdames</t>
+  </si>
+  <si>
+    <t>mauro caballero</t>
+  </si>
+  <si>
+    <t>jose luis sierra</t>
+  </si>
+  <si>
+    <t>david llanos</t>
+  </si>
+  <si>
+    <t>gary tello</t>
+  </si>
+  <si>
+    <t>miguel pinto</t>
+  </si>
+  <si>
+    <t>rodrigo yañez</t>
+  </si>
+  <si>
+    <t>tomas alarcon</t>
+  </si>
+  <si>
+    <t>albert acevedo</t>
+  </si>
+  <si>
+    <t>magalhaes</t>
+  </si>
+  <si>
+    <t>roberto cereceda</t>
+  </si>
+  <si>
+    <t>osorio</t>
+  </si>
+  <si>
+    <t>torrealba</t>
+  </si>
+  <si>
+    <t>gaston zuñiga</t>
+  </si>
+  <si>
+    <t>alejandro contreras</t>
+  </si>
+  <si>
+    <t>juan funtes</t>
+  </si>
+  <si>
+    <t>ramon fernandez</t>
+  </si>
+  <si>
+    <t>diego gonzales</t>
+  </si>
+  <si>
+    <t>yerko gonzales</t>
+  </si>
+  <si>
+    <t>matias sepulveda</t>
+  </si>
+  <si>
+    <t>jose luis muñoz</t>
+  </si>
+  <si>
+    <t>maximiliano</t>
+  </si>
+  <si>
+    <t>matias meneses</t>
+  </si>
+  <si>
+    <t>fierro</t>
+  </si>
+  <si>
+    <t>eryin</t>
+  </si>
+  <si>
+    <t>juaquin garcia</t>
+  </si>
+  <si>
+    <t>carlos labrin</t>
+  </si>
+  <si>
+    <t>manuel fernandez</t>
+  </si>
+  <si>
+    <t>bosso</t>
+  </si>
+  <si>
+    <t>fabian torres</t>
+  </si>
+  <si>
+    <t>crovetto</t>
+  </si>
+  <si>
+    <t>nicolas fernandez</t>
+  </si>
+  <si>
+    <t>ricardo escobar</t>
+  </si>
+  <si>
+    <t>cristobal muñoz</t>
+  </si>
+  <si>
+    <t>diego torres</t>
+  </si>
+  <si>
+    <t>rene melendez</t>
+  </si>
+  <si>
+    <t>ivan vasquez</t>
+  </si>
+  <si>
+    <t>ariel martinez</t>
+  </si>
+  <si>
+    <t>jorge henriquez</t>
+  </si>
+  <si>
+    <t>ladezma</t>
+  </si>
+  <si>
+    <t>ricardo fuenzalida</t>
+  </si>
+  <si>
+    <t>luis cabrera</t>
+  </si>
+  <si>
+    <t>cristobal marin</t>
+  </si>
+  <si>
+    <t>matias cano</t>
+  </si>
+  <si>
+    <t>daniel retamal</t>
+  </si>
+  <si>
+    <t>nicolas berardo</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>sebastian silva</t>
+  </si>
+  <si>
+    <t>daniel vicencio</t>
+  </si>
+  <si>
+    <t>diego oryarzun</t>
+  </si>
+  <si>
+    <t>jaime soto</t>
+  </si>
+  <si>
+    <t>ulises</t>
+  </si>
+  <si>
+    <t>fernando cornejo</t>
+  </si>
+  <si>
+    <t>galani</t>
+  </si>
+  <si>
+    <t>gerardo navarrete</t>
+  </si>
+  <si>
+    <t>diego aravena</t>
+  </si>
+  <si>
+    <t>canio</t>
+  </si>
+  <si>
+    <t>pineda</t>
+  </si>
+  <si>
+    <t>pinilla</t>
+  </si>
+  <si>
+    <t>farfan</t>
+  </si>
+  <si>
+    <t>benitez</t>
+  </si>
+  <si>
+    <t>deschamps</t>
+  </si>
+  <si>
+    <t>tomas vergara</t>
+  </si>
+  <si>
+    <t>diego taipa</t>
+  </si>
+  <si>
+    <t>santelices</t>
+  </si>
+  <si>
+    <t>felipe saavedra</t>
+  </si>
+  <si>
+    <t>opazo</t>
+  </si>
+  <si>
+    <t>nelson rebolledo</t>
+  </si>
+  <si>
+    <t>daniel franco</t>
+  </si>
+  <si>
+    <t>francisco silva</t>
+  </si>
+  <si>
+    <t>kevin martinez</t>
+  </si>
+  <si>
+    <t>carlos espinoza</t>
+  </si>
+  <si>
+    <t>heber</t>
+  </si>
+  <si>
+    <t>martin cortes</t>
+  </si>
+  <si>
+    <t>gonzalo bustamante</t>
+  </si>
+  <si>
+    <t>francisco rivera</t>
+  </si>
+  <si>
+    <t>diego urzua</t>
+  </si>
+  <si>
+    <t>mauro quiroga</t>
+  </si>
+  <si>
+    <t>diego vallejos</t>
+  </si>
+  <si>
+    <t>sebastian jaime</t>
+  </si>
+  <si>
+    <t>gabriel vargas</t>
+  </si>
+  <si>
+    <t>cavalleri</t>
+  </si>
+  <si>
+    <t>ignacio gonzales</t>
+  </si>
+  <si>
+    <t>matias borquez</t>
+  </si>
+  <si>
+    <t>danie murillo</t>
+  </si>
+  <si>
+    <t>alejandro gonzalez</t>
+  </si>
+  <si>
+    <t>byron</t>
+  </si>
+  <si>
+    <t>luis del pino</t>
+  </si>
+  <si>
+    <t>enzo</t>
+  </si>
+  <si>
+    <t>ignacio ayala</t>
+  </si>
+  <si>
+    <t>jorge araya</t>
+  </si>
+  <si>
+    <t>julian fernandez</t>
+  </si>
+  <si>
+    <t>rosende</t>
+  </si>
+  <si>
+    <t>cristobal jorquera</t>
+  </si>
+  <si>
+    <t>luis jimenez</t>
+  </si>
+  <si>
+    <t>cesar cortes</t>
+  </si>
+  <si>
+    <t>lizana</t>
+  </si>
+  <si>
+    <t>vejar</t>
+  </si>
+  <si>
+    <t>farias</t>
+  </si>
+  <si>
+    <t>diego oyarzun</t>
+  </si>
+  <si>
+    <t>lucas passerini</t>
+  </si>
+  <si>
+    <t>richard paredes</t>
+  </si>
+  <si>
+    <t>nicolas zedan</t>
+  </si>
+  <si>
+    <t>yerko rojas</t>
+  </si>
+  <si>
+    <t>roberto gutierrez</t>
+  </si>
+  <si>
+    <t>camilo rozas</t>
+  </si>
+  <si>
+    <t>jorge peña</t>
+  </si>
+  <si>
+    <t>alex ibacache</t>
+  </si>
+  <si>
+    <t>bastian san juan</t>
+  </si>
+  <si>
+    <t>lucas dominguez</t>
+  </si>
+  <si>
+    <t>cristian suarez</t>
+  </si>
+  <si>
+    <t>juaquin lopez</t>
+  </si>
+  <si>
+    <t>pereira</t>
+  </si>
+  <si>
+    <t>alejandro henriquez</t>
+  </si>
+  <si>
+    <t>camilo rodriguez</t>
+  </si>
+  <si>
+    <t>freitas</t>
+  </si>
+  <si>
+    <t>arismendi</t>
+  </si>
+  <si>
+    <t>ragusa</t>
+  </si>
+  <si>
+    <t>diego orellana</t>
+  </si>
+  <si>
+    <t>benjamin berrios</t>
+  </si>
+  <si>
+    <t>ceratto</t>
+  </si>
+  <si>
+    <t>alvaro ramos</t>
+  </si>
+  <si>
+    <t>isaac diaz</t>
+  </si>
+  <si>
+    <t>sergio vergara</t>
+  </si>
+  <si>
+    <t>yerko urra</t>
+  </si>
+  <si>
+    <t>manosalva</t>
+  </si>
+  <si>
+    <t>castellon</t>
+  </si>
+  <si>
+    <t>ignacio tapia</t>
+  </si>
+  <si>
+    <t>jorge rojas</t>
+  </si>
+  <si>
+    <t>jopia</t>
+  </si>
+  <si>
+    <t>cordova</t>
+  </si>
+  <si>
+    <t>bizama</t>
+  </si>
+  <si>
+    <t>federico pereyra</t>
+  </si>
+  <si>
+    <t>ramon saez</t>
+  </si>
+  <si>
+    <t>claudio sepulveda</t>
+  </si>
+  <si>
+    <t>cesar valenzuela</t>
+  </si>
+  <si>
+    <t>sebastian martinez</t>
+  </si>
+  <si>
+    <t>nicolas baeza</t>
+  </si>
+  <si>
+    <t>mathias</t>
+  </si>
+  <si>
+    <t>nicolas silva</t>
+  </si>
+  <si>
+    <t>cris</t>
+  </si>
+  <si>
+    <t>kevin barrientos</t>
+  </si>
+  <si>
+    <t>martin sanchez</t>
+  </si>
+  <si>
+    <t>felipe barrientos</t>
+  </si>
+  <si>
+    <t>mauricio godoy</t>
+  </si>
+  <si>
+    <t>maximiliano rodriguez</t>
+  </si>
+  <si>
+    <t>naranjo</t>
+  </si>
+  <si>
+    <t>sebastian perez</t>
+  </si>
+  <si>
+    <t>matias blasquez</t>
+  </si>
+  <si>
+    <t>abel</t>
+  </si>
+  <si>
+    <t>zenteno</t>
+  </si>
+  <si>
+    <t>hans</t>
+  </si>
+  <si>
+    <t>manuel bravo</t>
+  </si>
+  <si>
+    <t>imperiale</t>
+  </si>
+  <si>
+    <t>hector berrios</t>
+  </si>
+  <si>
+    <t>alan</t>
+  </si>
+  <si>
+    <t>diego fernandez</t>
+  </si>
+  <si>
+    <t>braulio</t>
+  </si>
+  <si>
+    <t>jose cepeda</t>
+  </si>
+  <si>
+    <t>rodrigo castro</t>
+  </si>
+  <si>
+    <t>wilson</t>
+  </si>
+  <si>
+    <t>camilo gainza</t>
+  </si>
+  <si>
+    <t>matias donoso</t>
+  </si>
+  <si>
+    <t>oscar salinas</t>
+  </si>
+  <si>
+    <t>cristian muñoz</t>
+  </si>
+  <si>
+    <t>pablo benitez</t>
+  </si>
+  <si>
+    <t>alvaro salazar</t>
+  </si>
+  <si>
+    <t>hans martinez</t>
+  </si>
+  <si>
+    <t>fernando cordero</t>
+  </si>
+  <si>
+    <t>guillermo pacheco</t>
+  </si>
+  <si>
+    <t>victor retamal</t>
+  </si>
+  <si>
+    <t>leandro diaz</t>
+  </si>
+  <si>
+    <t>alejandro camargo</t>
+  </si>
+  <si>
+    <t>luis pedro</t>
+  </si>
+  <si>
+    <t>droguett</t>
+  </si>
+  <si>
+    <t>fernando manriquez</t>
+  </si>
+  <si>
+    <t>patricio rubio</t>
+  </si>
+  <si>
+    <t>nicolas maturana</t>
+  </si>
+  <si>
+    <t>huntelaf</t>
+  </si>
+  <si>
+    <t>nicolas orellana</t>
+  </si>
+  <si>
+    <t>luis riveros</t>
+  </si>
+  <si>
+    <t>walter ponce</t>
+  </si>
+  <si>
+    <t>paulo garces</t>
+  </si>
+  <si>
+    <t>fernando hurtado</t>
+  </si>
+  <si>
+    <t>nicolas araya</t>
+  </si>
+  <si>
+    <t>agustin rossi</t>
+  </si>
+  <si>
+    <t>ampuerto</t>
+  </si>
+  <si>
+    <t>romo</t>
+  </si>
+  <si>
+    <t>peñailillo</t>
+  </si>
+  <si>
+    <t>cristian rojas</t>
+  </si>
+  <si>
+    <t>asta-buruaga</t>
+  </si>
+  <si>
+    <t>gonzalo fierro</t>
+  </si>
+  <si>
+    <t>francisco sepulveda</t>
+  </si>
+  <si>
+    <t>delfino</t>
+  </si>
+  <si>
+    <t>ricardo blanco</t>
+  </si>
+  <si>
+    <t>oscar fernandez</t>
+  </si>
+  <si>
+    <t>shultz</t>
+  </si>
+  <si>
+    <t>gabriel sandoval</t>
+  </si>
+  <si>
+    <t>collao</t>
+  </si>
+  <si>
+    <t>lepe</t>
+  </si>
+  <si>
+    <t>jason flores</t>
+  </si>
+  <si>
+    <t>felipe flores</t>
+  </si>
+  <si>
+    <t>jose bandez</t>
+  </si>
+  <si>
+    <t>sebastian lopez</t>
+  </si>
+  <si>
+    <t>miguel vargas</t>
+  </si>
+  <si>
+    <t>rodrigo cabrera</t>
+  </si>
+  <si>
+    <t>flavio rojas</t>
+  </si>
+  <si>
+    <t>juan contreras</t>
+  </si>
+  <si>
+    <t>rodolfo</t>
+  </si>
+  <si>
+    <t>eric</t>
+  </si>
+  <si>
+    <t>filla</t>
+  </si>
+  <si>
+    <t>ureña</t>
+  </si>
+  <si>
+    <t>juan gutierrez</t>
+  </si>
+  <si>
+    <t>eduardo farias</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>reynero</t>
+  </si>
+  <si>
+    <t>fabian saavedra</t>
+  </si>
+  <si>
+    <t>marcos figueroa</t>
+  </si>
+  <si>
+    <t>ronaldo</t>
+  </si>
+  <si>
+    <t>nicolas muñoz</t>
+  </si>
+  <si>
+    <t>carlos muñoz</t>
+  </si>
+  <si>
+    <t>de paul</t>
+  </si>
+  <si>
+    <t>jhonny</t>
+  </si>
+  <si>
+    <t>vittor</t>
+  </si>
+  <si>
+    <t>matias rodriguez</t>
+  </si>
+  <si>
+    <t>augusto</t>
+  </si>
+  <si>
+    <t>lucas alarcon</t>
+  </si>
+  <si>
+    <t>echeverria</t>
+  </si>
+  <si>
+    <t>matias campos</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>nicolas oroz</t>
+  </si>
+  <si>
+    <t>jean</t>
+  </si>
+  <si>
+    <t>caroca</t>
+  </si>
+  <si>
+    <t>gonzao espinoza</t>
+  </si>
+  <si>
+    <t>ivan rozas</t>
+  </si>
+  <si>
+    <t>leandro benegas</t>
+  </si>
+  <si>
+    <t>angelo henriquez</t>
+  </si>
+  <si>
+    <t>sebastian ubilla</t>
+  </si>
+  <si>
+    <t>nicolas guerra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -266,6 +2174,12 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,7 +2201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -296,6 +2210,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C368" sqref="C368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1135,6 +3053,3605 @@
         <v>67</v>
       </c>
     </row>
+    <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A87" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A96" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A97" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A99" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A100" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A102" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A104" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A107" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A108" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A109" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A110" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A111" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A112" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A113" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A114" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A116" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A118" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A119" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A120" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A121" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A122" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A123" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A124" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A125" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A127" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A128" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A129" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A130" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A132" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A133" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A134" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A135" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A136" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A137" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A138" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A139" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A140" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A141" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A142" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A143" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A144" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A146" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A147" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A148" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A149" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A150" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A151" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A152" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A153" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A154" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A155" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A156" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A157" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A158" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A159" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A160" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A161" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A162" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A163" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A164" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A166" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A167" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A168" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A170" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A171" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A172" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A173" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A174" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A175" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A176" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A177" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A178" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A179" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A180" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A181" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A182" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A183" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A184" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A185" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A186" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A187" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A188" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A190" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A191" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A192" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A193" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A194" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A195" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A196" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A197" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A198" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A199" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A200" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A201" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A202" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A203" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A204" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A205" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A206" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A207" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A208" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A209" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A210" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A211" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A212" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A213" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A214" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A215" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A216" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A217" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A218" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A219" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A220" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A221" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A222" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A223" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A224" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A225" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A226" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A227" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A228" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A229" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A230" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A231" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A232" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A233" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A234" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A235" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A236" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A237" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A238" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A239" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A240" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A241" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A242" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A243" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A244" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A245" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A246" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A247" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A248" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A249" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A250" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A251" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A252" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A253" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A254" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A255" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A256" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A257" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A258" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A259" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A260" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A261" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A262" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A263" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A264" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A265" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A266" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A267" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A268" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A269" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A270" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A271" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A272" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A273" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A274" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A275" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A276" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A277" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A278" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A279" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A280" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A281" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A282" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A283" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A284" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A285" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A286" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A287" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A288" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A289" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A290" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A291" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A292" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A293" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A294" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A295" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A296" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A297" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A298" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A299" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A300" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A301" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A302" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A303" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A304" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A305" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A306" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A307" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A308" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A309" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A310" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A311" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A312" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A313" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A314" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A315" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A316" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A317" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A318" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A319" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A320" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B320" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A321" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A322" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A323" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B323" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A324" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B324" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A325" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B325" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A326" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A327" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A328" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A329" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A330" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B330" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A331" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A332" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A333" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B333" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A334" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A335" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A336" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A337" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A338" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A339" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B339" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A340" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A341" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B341" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A342" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A343" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A344" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B344" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A345" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B345" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A346" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B346" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A347" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A348" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B348" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A349" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B349" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A350" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A351" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A352" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B352" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A353" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B353" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A354" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A355" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B355" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A356" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B356" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A357" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A358" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B358" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A359" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B359" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A360" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B360" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A361" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B361" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A362" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B362" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A363" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A364" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B364" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A365" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B365" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A366" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B366" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A367" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B367" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A368" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B368" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A370" s="3"/>
+    </row>
+    <row r="371" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A371" s="3"/>
+    </row>
+    <row r="372" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A372" s="3"/>
+    </row>
+    <row r="373" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A373" s="3"/>
+    </row>
+    <row r="374" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A374" s="3"/>
+    </row>
+    <row r="375" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A375" s="3"/>
+    </row>
+    <row r="376" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A376" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/src/main/resources/keywords.xlsx
+++ b/src/main/resources/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B581B678-ECA8-4B46-A053-5741B1E1A6B4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1F920-4D31-564D-968B-7D49F0F6F107}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>Diego Buonanotte</t>
   </si>
   <si>
-    <t>enano</t>
-  </si>
-  <si>
     <t>José Pedro Fuenzalida</t>
   </si>
   <si>
@@ -2137,6 +2134,9 @@
   </si>
   <si>
     <t>nicolas guerra</t>
+  </si>
+  <si>
+    <t>buonantte</t>
   </si>
 </sst>
 </file>
@@ -2530,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C368" sqref="C368"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2937,7 +2937,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>50</v>
+        <v>703</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2947,10 +2947,10 @@
         <v>48</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -2960,10 +2960,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2973,10 +2973,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -2986,10 +2986,10 @@
         <v>48</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2999,10 +2999,10 @@
         <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -3012,10 +3012,10 @@
         <v>48</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -3025,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3036,10 +3036,10 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3047,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3058,10 +3058,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3069,10 +3069,10 @@
         <v>48</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3080,10 +3080,10 @@
         <v>48</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3091,10 +3091,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3102,10 +3102,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3113,10 +3113,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3124,10 +3124,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3135,10 +3135,10 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3146,10 +3146,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3157,10 +3157,10 @@
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3168,10 +3168,10 @@
         <v>48</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3179,10 +3179,10 @@
         <v>48</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3190,10 +3190,10 @@
         <v>48</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3201,10 +3201,10 @@
         <v>48</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3212,10 +3212,10 @@
         <v>48</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3226,7 +3226,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3234,10 +3234,10 @@
         <v>48</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3245,10 +3245,10 @@
         <v>48</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3256,10 +3256,10 @@
         <v>48</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3267,10 +3267,10 @@
         <v>48</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3278,10 +3278,10 @@
         <v>48</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3289,10 +3289,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3300,10 +3300,10 @@
         <v>48</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3311,10 +3311,10 @@
         <v>48</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3322,10 +3322,10 @@
         <v>48</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3333,10 +3333,10 @@
         <v>48</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3344,10 +3344,10 @@
         <v>48</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3355,10 +3355,10 @@
         <v>48</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3366,10 +3366,10 @@
         <v>48</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3377,10 +3377,10 @@
         <v>48</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3388,10 +3388,10 @@
         <v>48</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3399,10 +3399,10 @@
         <v>48</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3410,10 +3410,10 @@
         <v>48</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3421,10 +3421,10 @@
         <v>48</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3432,10 +3432,10 @@
         <v>48</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3443,10 +3443,10 @@
         <v>48</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3454,10 +3454,10 @@
         <v>48</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3465,10 +3465,10 @@
         <v>48</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3476,10 +3476,10 @@
         <v>48</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3487,10 +3487,10 @@
         <v>48</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3498,10 +3498,10 @@
         <v>48</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3509,10 +3509,10 @@
         <v>48</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3520,10 +3520,10 @@
         <v>48</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3531,10 +3531,10 @@
         <v>48</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3542,10 +3542,10 @@
         <v>48</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3553,10 +3553,10 @@
         <v>48</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3564,10 +3564,10 @@
         <v>48</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3575,10 +3575,10 @@
         <v>48</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3586,10 +3586,10 @@
         <v>48</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3597,10 +3597,10 @@
         <v>48</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3608,10 +3608,10 @@
         <v>48</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3619,10 +3619,10 @@
         <v>48</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3630,10 +3630,10 @@
         <v>48</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3641,10 +3641,10 @@
         <v>48</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3652,10 +3652,10 @@
         <v>48</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3663,10 +3663,10 @@
         <v>48</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3674,10 +3674,10 @@
         <v>48</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3685,10 +3685,10 @@
         <v>48</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3696,10 +3696,10 @@
         <v>48</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3707,10 +3707,10 @@
         <v>48</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3718,10 +3718,10 @@
         <v>48</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3729,10 +3729,10 @@
         <v>48</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3740,10 +3740,10 @@
         <v>48</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3751,10 +3751,10 @@
         <v>48</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3762,10 +3762,10 @@
         <v>48</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3773,10 +3773,10 @@
         <v>48</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3784,10 +3784,10 @@
         <v>48</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3795,10 +3795,10 @@
         <v>48</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3806,10 +3806,10 @@
         <v>48</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3817,10 +3817,10 @@
         <v>48</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3828,10 +3828,10 @@
         <v>48</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3839,10 +3839,10 @@
         <v>48</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3850,10 +3850,10 @@
         <v>48</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3861,10 +3861,10 @@
         <v>48</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3872,10 +3872,10 @@
         <v>48</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3883,10 +3883,10 @@
         <v>48</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3894,10 +3894,10 @@
         <v>48</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3905,10 +3905,10 @@
         <v>48</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3916,10 +3916,10 @@
         <v>48</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3927,10 +3927,10 @@
         <v>48</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3938,10 +3938,10 @@
         <v>48</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3949,10 +3949,10 @@
         <v>48</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3960,10 +3960,10 @@
         <v>48</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3971,10 +3971,10 @@
         <v>48</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3982,10 +3982,10 @@
         <v>48</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3993,10 +3993,10 @@
         <v>48</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4004,10 +4004,10 @@
         <v>48</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4015,10 +4015,10 @@
         <v>48</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4026,10 +4026,10 @@
         <v>48</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4037,10 +4037,10 @@
         <v>48</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4048,10 +4048,10 @@
         <v>48</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4059,10 +4059,10 @@
         <v>48</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4070,10 +4070,10 @@
         <v>48</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4081,10 +4081,10 @@
         <v>48</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4092,10 +4092,10 @@
         <v>48</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4103,10 +4103,10 @@
         <v>48</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4114,10 +4114,10 @@
         <v>48</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4125,10 +4125,10 @@
         <v>48</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4136,10 +4136,10 @@
         <v>48</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4147,10 +4147,10 @@
         <v>48</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4158,10 +4158,10 @@
         <v>48</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4169,10 +4169,10 @@
         <v>48</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4180,10 +4180,10 @@
         <v>48</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4191,10 +4191,10 @@
         <v>48</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4202,10 +4202,10 @@
         <v>48</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4213,10 +4213,10 @@
         <v>48</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4224,10 +4224,10 @@
         <v>48</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4235,10 +4235,10 @@
         <v>48</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4246,10 +4246,10 @@
         <v>48</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4257,10 +4257,10 @@
         <v>48</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4268,10 +4268,10 @@
         <v>48</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4279,10 +4279,10 @@
         <v>48</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4290,10 +4290,10 @@
         <v>48</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4301,10 +4301,10 @@
         <v>48</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4312,10 +4312,10 @@
         <v>48</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4323,10 +4323,10 @@
         <v>48</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4334,10 +4334,10 @@
         <v>48</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4345,10 +4345,10 @@
         <v>48</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4356,10 +4356,10 @@
         <v>48</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4367,10 +4367,10 @@
         <v>48</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4378,10 +4378,10 @@
         <v>48</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4389,10 +4389,10 @@
         <v>48</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4400,10 +4400,10 @@
         <v>48</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4411,10 +4411,10 @@
         <v>48</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4422,10 +4422,10 @@
         <v>48</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4433,10 +4433,10 @@
         <v>48</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4444,10 +4444,10 @@
         <v>48</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4455,10 +4455,10 @@
         <v>48</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4466,10 +4466,10 @@
         <v>48</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4477,10 +4477,10 @@
         <v>48</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4488,10 +4488,10 @@
         <v>48</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4499,10 +4499,10 @@
         <v>48</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4510,10 +4510,10 @@
         <v>48</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4521,10 +4521,10 @@
         <v>48</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4532,10 +4532,10 @@
         <v>48</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4543,10 +4543,10 @@
         <v>48</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4554,10 +4554,10 @@
         <v>48</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4565,10 +4565,10 @@
         <v>48</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4576,10 +4576,10 @@
         <v>48</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4587,10 +4587,10 @@
         <v>48</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4598,10 +4598,10 @@
         <v>48</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4609,10 +4609,10 @@
         <v>48</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4620,10 +4620,10 @@
         <v>48</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4631,10 +4631,10 @@
         <v>48</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4642,10 +4642,10 @@
         <v>48</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4653,10 +4653,10 @@
         <v>48</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4664,10 +4664,10 @@
         <v>48</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4675,10 +4675,10 @@
         <v>48</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4686,10 +4686,10 @@
         <v>48</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4697,10 +4697,10 @@
         <v>48</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4708,10 +4708,10 @@
         <v>48</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4719,10 +4719,10 @@
         <v>48</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4730,10 +4730,10 @@
         <v>48</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4741,10 +4741,10 @@
         <v>48</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4752,10 +4752,10 @@
         <v>48</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4763,10 +4763,10 @@
         <v>48</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4774,10 +4774,10 @@
         <v>48</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4785,10 +4785,10 @@
         <v>48</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4796,10 +4796,10 @@
         <v>48</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4807,10 +4807,10 @@
         <v>48</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4818,10 +4818,10 @@
         <v>48</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4829,10 +4829,10 @@
         <v>48</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4840,10 +4840,10 @@
         <v>48</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4851,10 +4851,10 @@
         <v>48</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4862,10 +4862,10 @@
         <v>48</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4873,10 +4873,10 @@
         <v>48</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4884,10 +4884,10 @@
         <v>48</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4895,10 +4895,10 @@
         <v>48</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4906,10 +4906,10 @@
         <v>48</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4917,10 +4917,10 @@
         <v>48</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4928,10 +4928,10 @@
         <v>48</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4939,10 +4939,10 @@
         <v>48</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4950,10 +4950,10 @@
         <v>48</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4961,10 +4961,10 @@
         <v>48</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4972,10 +4972,10 @@
         <v>48</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4983,10 +4983,10 @@
         <v>48</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4994,10 +4994,10 @@
         <v>48</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5005,10 +5005,10 @@
         <v>48</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5016,10 +5016,10 @@
         <v>48</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5027,10 +5027,10 @@
         <v>48</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5038,10 +5038,10 @@
         <v>48</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5049,10 +5049,10 @@
         <v>48</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5060,10 +5060,10 @@
         <v>48</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5071,10 +5071,10 @@
         <v>48</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5082,10 +5082,10 @@
         <v>48</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5093,10 +5093,10 @@
         <v>48</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5104,10 +5104,10 @@
         <v>48</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5115,10 +5115,10 @@
         <v>48</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5126,10 +5126,10 @@
         <v>48</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5137,10 +5137,10 @@
         <v>48</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5148,10 +5148,10 @@
         <v>48</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5159,10 +5159,10 @@
         <v>48</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5170,10 +5170,10 @@
         <v>48</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5181,10 +5181,10 @@
         <v>48</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5192,10 +5192,10 @@
         <v>48</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5203,10 +5203,10 @@
         <v>48</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5214,10 +5214,10 @@
         <v>48</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5225,10 +5225,10 @@
         <v>48</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5236,10 +5236,10 @@
         <v>48</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5247,10 +5247,10 @@
         <v>48</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5258,10 +5258,10 @@
         <v>48</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5269,10 +5269,10 @@
         <v>48</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5280,10 +5280,10 @@
         <v>48</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5291,10 +5291,10 @@
         <v>48</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5302,10 +5302,10 @@
         <v>48</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5313,10 +5313,10 @@
         <v>48</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5324,10 +5324,10 @@
         <v>48</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5335,10 +5335,10 @@
         <v>48</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5346,10 +5346,10 @@
         <v>48</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5357,10 +5357,10 @@
         <v>48</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5368,10 +5368,10 @@
         <v>48</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5379,10 +5379,10 @@
         <v>48</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5390,10 +5390,10 @@
         <v>48</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5401,10 +5401,10 @@
         <v>48</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5412,10 +5412,10 @@
         <v>48</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5423,10 +5423,10 @@
         <v>48</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5434,10 +5434,10 @@
         <v>48</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5445,10 +5445,10 @@
         <v>48</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5456,10 +5456,10 @@
         <v>48</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5467,10 +5467,10 @@
         <v>48</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5478,10 +5478,10 @@
         <v>48</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5489,10 +5489,10 @@
         <v>48</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5500,10 +5500,10 @@
         <v>48</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5511,10 +5511,10 @@
         <v>48</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5522,10 +5522,10 @@
         <v>48</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5533,10 +5533,10 @@
         <v>48</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5544,10 +5544,10 @@
         <v>48</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5555,10 +5555,10 @@
         <v>48</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5566,10 +5566,10 @@
         <v>48</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5577,10 +5577,10 @@
         <v>48</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5588,10 +5588,10 @@
         <v>48</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5599,10 +5599,10 @@
         <v>48</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5610,10 +5610,10 @@
         <v>48</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5621,10 +5621,10 @@
         <v>48</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5632,10 +5632,10 @@
         <v>48</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5643,10 +5643,10 @@
         <v>48</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5654,10 +5654,10 @@
         <v>48</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5665,10 +5665,10 @@
         <v>48</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5676,10 +5676,10 @@
         <v>48</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5687,10 +5687,10 @@
         <v>48</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5698,10 +5698,10 @@
         <v>48</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5709,10 +5709,10 @@
         <v>48</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5720,10 +5720,10 @@
         <v>48</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5731,10 +5731,10 @@
         <v>48</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5742,10 +5742,10 @@
         <v>48</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5753,10 +5753,10 @@
         <v>48</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5764,10 +5764,10 @@
         <v>48</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5775,10 +5775,10 @@
         <v>48</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5786,10 +5786,10 @@
         <v>48</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5797,10 +5797,10 @@
         <v>48</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5808,10 +5808,10 @@
         <v>48</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5819,10 +5819,10 @@
         <v>48</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5830,10 +5830,10 @@
         <v>48</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5841,10 +5841,10 @@
         <v>48</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5852,10 +5852,10 @@
         <v>48</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5863,10 +5863,10 @@
         <v>48</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5874,10 +5874,10 @@
         <v>48</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5885,10 +5885,10 @@
         <v>48</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5896,10 +5896,10 @@
         <v>48</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5907,10 +5907,10 @@
         <v>48</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5918,10 +5918,10 @@
         <v>48</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5929,10 +5929,10 @@
         <v>48</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5940,10 +5940,10 @@
         <v>48</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5951,10 +5951,10 @@
         <v>48</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5962,10 +5962,10 @@
         <v>48</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5973,10 +5973,10 @@
         <v>48</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5984,10 +5984,10 @@
         <v>48</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5995,10 +5995,10 @@
         <v>48</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6006,10 +6006,10 @@
         <v>48</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6017,10 +6017,10 @@
         <v>48</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6028,10 +6028,10 @@
         <v>48</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6039,10 +6039,10 @@
         <v>48</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6050,10 +6050,10 @@
         <v>48</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6061,10 +6061,10 @@
         <v>48</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6072,10 +6072,10 @@
         <v>48</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6083,10 +6083,10 @@
         <v>48</v>
       </c>
       <c r="B319" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6094,10 +6094,10 @@
         <v>48</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6105,10 +6105,10 @@
         <v>48</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6116,10 +6116,10 @@
         <v>48</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6127,10 +6127,10 @@
         <v>48</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6138,10 +6138,10 @@
         <v>48</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6149,10 +6149,10 @@
         <v>48</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6160,10 +6160,10 @@
         <v>48</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6171,10 +6171,10 @@
         <v>48</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6182,10 +6182,10 @@
         <v>48</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6193,10 +6193,10 @@
         <v>48</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6204,10 +6204,10 @@
         <v>48</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6215,10 +6215,10 @@
         <v>48</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6226,10 +6226,10 @@
         <v>48</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6237,10 +6237,10 @@
         <v>48</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6248,10 +6248,10 @@
         <v>48</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6259,10 +6259,10 @@
         <v>48</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6270,10 +6270,10 @@
         <v>48</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6281,10 +6281,10 @@
         <v>48</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6292,10 +6292,10 @@
         <v>48</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6303,10 +6303,10 @@
         <v>48</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6314,10 +6314,10 @@
         <v>48</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6325,10 +6325,10 @@
         <v>48</v>
       </c>
       <c r="B341" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6336,10 +6336,10 @@
         <v>48</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6347,10 +6347,10 @@
         <v>48</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6358,10 +6358,10 @@
         <v>48</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6369,10 +6369,10 @@
         <v>48</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6380,10 +6380,10 @@
         <v>48</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6391,10 +6391,10 @@
         <v>48</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6402,10 +6402,10 @@
         <v>48</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6413,10 +6413,10 @@
         <v>48</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6424,10 +6424,10 @@
         <v>48</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6435,10 +6435,10 @@
         <v>48</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6446,10 +6446,10 @@
         <v>48</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6457,10 +6457,10 @@
         <v>48</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6468,10 +6468,10 @@
         <v>48</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6479,10 +6479,10 @@
         <v>48</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6490,10 +6490,10 @@
         <v>48</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6501,10 +6501,10 @@
         <v>48</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6512,10 +6512,10 @@
         <v>48</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6523,10 +6523,10 @@
         <v>48</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6534,10 +6534,10 @@
         <v>48</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6545,10 +6545,10 @@
         <v>48</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6556,10 +6556,10 @@
         <v>48</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6567,10 +6567,10 @@
         <v>48</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6578,10 +6578,10 @@
         <v>48</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6589,10 +6589,10 @@
         <v>48</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6600,10 +6600,10 @@
         <v>48</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6611,10 +6611,10 @@
         <v>48</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6622,10 +6622,10 @@
         <v>48</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="369" spans="1:1" ht="14" x14ac:dyDescent="0.15">

--- a/src/main/resources/keywords.xlsx
+++ b/src/main/resources/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1F920-4D31-564D-968B-7D49F0F6F107}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC8A7E-1140-AB46-BE65-03C75F9446C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="703">
   <si>
     <t>equipo</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>cacique</t>
-  </si>
-  <si>
-    <t>popular</t>
   </si>
   <si>
     <t>eterno campeon</t>
@@ -2528,10 +2525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E376"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2656,19 +2653,19 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>16</v>
@@ -2678,11 +2675,11 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>15</v>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -2690,18 +2687,18 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>21</v>
@@ -2711,21 +2708,21 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2734,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -2745,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -2756,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -2767,18 +2764,20 @@
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
@@ -2791,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -2804,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -2817,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -2830,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2843,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2856,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2869,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>43</v>
@@ -2882,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
@@ -2895,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>45</v>
@@ -2908,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
@@ -2918,117 +2917,115 @@
     </row>
     <row r="33" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>702</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>703</v>
+        <v>50</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+        <v>62</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B41" t="s">
-        <v>62</v>
+      <c r="B41" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3036,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>65</v>
@@ -3044,18 +3041,18 @@
     </row>
     <row r="43" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>66</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>67</v>
@@ -3066,7 +3063,7 @@
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>68</v>
@@ -3077,7 +3074,7 @@
     </row>
     <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>69</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>70</v>
@@ -3099,7 +3096,7 @@
     </row>
     <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>71</v>
@@ -3110,7 +3107,7 @@
     </row>
     <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>72</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>73</v>
@@ -3132,7 +3129,7 @@
     </row>
     <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>74</v>
@@ -3143,7 +3140,7 @@
     </row>
     <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>75</v>
@@ -3154,7 +3151,7 @@
     </row>
     <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>76</v>
@@ -3165,7 +3162,7 @@
     </row>
     <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>77</v>
@@ -3176,7 +3173,7 @@
     </row>
     <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>78</v>
@@ -3187,7 +3184,7 @@
     </row>
     <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>79</v>
@@ -3198,7 +3195,7 @@
     </row>
     <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>80</v>
@@ -3209,10 +3206,10 @@
     </row>
     <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>396</v>
@@ -3220,7 +3217,7 @@
     </row>
     <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>49</v>
@@ -3231,10 +3228,10 @@
     </row>
     <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>398</v>
@@ -3242,7 +3239,7 @@
     </row>
     <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>82</v>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>83</v>
@@ -3264,7 +3261,7 @@
     </row>
     <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>84</v>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>85</v>
@@ -3286,7 +3283,7 @@
     </row>
     <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>86</v>
@@ -3297,7 +3294,7 @@
     </row>
     <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>87</v>
@@ -3308,9 +3305,9 @@
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="7" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3319,7 +3316,7 @@
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>89</v>
@@ -3330,7 +3327,7 @@
     </row>
     <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>90</v>
@@ -3341,7 +3338,7 @@
     </row>
     <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>91</v>
@@ -3352,7 +3349,7 @@
     </row>
     <row r="71" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>92</v>
@@ -3363,7 +3360,7 @@
     </row>
     <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>93</v>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>94</v>
@@ -3385,7 +3382,7 @@
     </row>
     <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>95</v>
@@ -3396,7 +3393,7 @@
     </row>
     <row r="75" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>96</v>
@@ -3407,7 +3404,7 @@
     </row>
     <row r="76" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>97</v>
@@ -3418,7 +3415,7 @@
     </row>
     <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>98</v>
@@ -3429,7 +3426,7 @@
     </row>
     <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>99</v>
@@ -3440,7 +3437,7 @@
     </row>
     <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>100</v>
@@ -3451,7 +3448,7 @@
     </row>
     <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>101</v>
@@ -3462,7 +3459,7 @@
     </row>
     <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>102</v>
@@ -3473,7 +3470,7 @@
     </row>
     <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>103</v>
@@ -3484,7 +3481,7 @@
     </row>
     <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>104</v>
@@ -3495,7 +3492,7 @@
     </row>
     <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>105</v>
@@ -3506,7 +3503,7 @@
     </row>
     <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>106</v>
@@ -3517,7 +3514,7 @@
     </row>
     <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>107</v>
@@ -3528,7 +3525,7 @@
     </row>
     <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>108</v>
@@ -3539,7 +3536,7 @@
     </row>
     <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>109</v>
@@ -3550,7 +3547,7 @@
     </row>
     <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>110</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>111</v>
@@ -3572,10 +3569,10 @@
     </row>
     <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>429</v>
@@ -3583,10 +3580,10 @@
     </row>
     <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>430</v>
@@ -3594,10 +3591,10 @@
     </row>
     <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>431</v>
@@ -3605,10 +3602,10 @@
     </row>
     <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>432</v>
@@ -3616,7 +3613,7 @@
     </row>
     <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>114</v>
@@ -3627,7 +3624,7 @@
     </row>
     <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>115</v>
@@ -3638,7 +3635,7 @@
     </row>
     <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>116</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>117</v>
@@ -3660,7 +3657,7 @@
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>118</v>
@@ -3671,10 +3668,10 @@
     </row>
     <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>438</v>
@@ -3682,10 +3679,10 @@
     </row>
     <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>439</v>
@@ -3693,7 +3690,7 @@
     </row>
     <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>120</v>
@@ -3704,10 +3701,10 @@
     </row>
     <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>441</v>
@@ -3715,10 +3712,10 @@
     </row>
     <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>442</v>
@@ -3726,7 +3723,7 @@
     </row>
     <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>122</v>
@@ -3737,10 +3734,10 @@
     </row>
     <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>444</v>
@@ -3748,10 +3745,10 @@
     </row>
     <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>445</v>
@@ -3759,7 +3756,7 @@
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>124</v>
@@ -3770,7 +3767,7 @@
     </row>
     <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>125</v>
@@ -3781,7 +3778,7 @@
     </row>
     <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>126</v>
@@ -3792,7 +3789,7 @@
     </row>
     <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>127</v>
@@ -3803,7 +3800,7 @@
     </row>
     <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>128</v>
@@ -3814,7 +3811,7 @@
     </row>
     <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>129</v>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>130</v>
@@ -3836,7 +3833,7 @@
     </row>
     <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>131</v>
@@ -3847,7 +3844,7 @@
     </row>
     <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B116" s="7" t="s">
         <v>132</v>
@@ -3858,7 +3855,7 @@
     </row>
     <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>133</v>
@@ -3869,7 +3866,7 @@
     </row>
     <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B118" s="7" t="s">
         <v>134</v>
@@ -3880,7 +3877,7 @@
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>135</v>
@@ -3891,7 +3888,7 @@
     </row>
     <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B120" s="7" t="s">
         <v>136</v>
@@ -3902,7 +3899,7 @@
     </row>
     <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>137</v>
@@ -3913,7 +3910,7 @@
     </row>
     <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B122" s="7" t="s">
         <v>138</v>
@@ -3924,7 +3921,7 @@
     </row>
     <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>139</v>
@@ -3935,7 +3932,7 @@
     </row>
     <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B124" s="7" t="s">
         <v>140</v>
@@ -3946,7 +3943,7 @@
     </row>
     <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>141</v>
@@ -3957,7 +3954,7 @@
     </row>
     <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B126" s="7" t="s">
         <v>142</v>
@@ -3968,7 +3965,7 @@
     </row>
     <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>143</v>
@@ -3979,7 +3976,7 @@
     </row>
     <row r="128" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B128" s="7" t="s">
         <v>144</v>
@@ -3990,7 +3987,7 @@
     </row>
     <row r="129" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>145</v>
@@ -4001,7 +3998,7 @@
     </row>
     <row r="130" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B130" s="7" t="s">
         <v>146</v>
@@ -4012,7 +4009,7 @@
     </row>
     <row r="131" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>147</v>
@@ -4023,7 +4020,7 @@
     </row>
     <row r="132" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B132" s="7" t="s">
         <v>148</v>
@@ -4034,7 +4031,7 @@
     </row>
     <row r="133" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>149</v>
@@ -4045,7 +4042,7 @@
     </row>
     <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B134" s="7" t="s">
         <v>150</v>
@@ -4056,7 +4053,7 @@
     </row>
     <row r="135" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>151</v>
@@ -4067,7 +4064,7 @@
     </row>
     <row r="136" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B136" s="7" t="s">
         <v>152</v>
@@ -4078,7 +4075,7 @@
     </row>
     <row r="137" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>153</v>
@@ -4089,7 +4086,7 @@
     </row>
     <row r="138" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B138" s="7" t="s">
         <v>154</v>
@@ -4100,7 +4097,7 @@
     </row>
     <row r="139" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>155</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="140" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B140" s="7" t="s">
         <v>156</v>
@@ -4122,7 +4119,7 @@
     </row>
     <row r="141" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>157</v>
@@ -4133,7 +4130,7 @@
     </row>
     <row r="142" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B142" s="7" t="s">
         <v>158</v>
@@ -4144,7 +4141,7 @@
     </row>
     <row r="143" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>159</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="144" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B144" s="7" t="s">
         <v>160</v>
@@ -4166,7 +4163,7 @@
     </row>
     <row r="145" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>161</v>
@@ -4177,7 +4174,7 @@
     </row>
     <row r="146" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B146" s="7" t="s">
         <v>162</v>
@@ -4188,7 +4185,7 @@
     </row>
     <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>163</v>
@@ -4199,7 +4196,7 @@
     </row>
     <row r="148" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B148" s="7" t="s">
         <v>164</v>
@@ -4210,7 +4207,7 @@
     </row>
     <row r="149" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>165</v>
@@ -4221,7 +4218,7 @@
     </row>
     <row r="150" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B150" s="7" t="s">
         <v>166</v>
@@ -4232,7 +4229,7 @@
     </row>
     <row r="151" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>167</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="152" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B152" s="7" t="s">
         <v>168</v>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="153" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>169</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="154" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B154" s="7" t="s">
         <v>170</v>
@@ -4276,7 +4273,7 @@
     </row>
     <row r="155" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>171</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="156" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B156" s="7" t="s">
         <v>172</v>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="157" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>173</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="158" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B158" s="7" t="s">
         <v>174</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="159" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>175</v>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="160" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>176</v>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="161" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>177</v>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="162" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>178</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="163" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>179</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="164" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B164" s="7" t="s">
         <v>180</v>
@@ -4386,7 +4383,7 @@
     </row>
     <row r="165" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A165" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>181</v>
@@ -4397,7 +4394,7 @@
     </row>
     <row r="166" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>182</v>
@@ -4408,7 +4405,7 @@
     </row>
     <row r="167" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>183</v>
@@ -4419,7 +4416,7 @@
     </row>
     <row r="168" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B168" s="7" t="s">
         <v>184</v>
@@ -4430,7 +4427,7 @@
     </row>
     <row r="169" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A169" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>185</v>
@@ -4441,7 +4438,7 @@
     </row>
     <row r="170" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B170" s="7" t="s">
         <v>186</v>
@@ -4452,7 +4449,7 @@
     </row>
     <row r="171" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>187</v>
@@ -4463,7 +4460,7 @@
     </row>
     <row r="172" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B172" s="7" t="s">
         <v>188</v>
@@ -4474,7 +4471,7 @@
     </row>
     <row r="173" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>189</v>
@@ -4485,7 +4482,7 @@
     </row>
     <row r="174" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B174" s="7" t="s">
         <v>190</v>
@@ -4496,7 +4493,7 @@
     </row>
     <row r="175" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>191</v>
@@ -4507,7 +4504,7 @@
     </row>
     <row r="176" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B176" s="7" t="s">
         <v>192</v>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="177" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>193</v>
@@ -4529,7 +4526,7 @@
     </row>
     <row r="178" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B178" s="7" t="s">
         <v>194</v>
@@ -4540,7 +4537,7 @@
     </row>
     <row r="179" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>195</v>
@@ -4551,7 +4548,7 @@
     </row>
     <row r="180" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>196</v>
@@ -4562,7 +4559,7 @@
     </row>
     <row r="181" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>197</v>
@@ -4573,7 +4570,7 @@
     </row>
     <row r="182" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B182" s="7" t="s">
         <v>198</v>
@@ -4584,7 +4581,7 @@
     </row>
     <row r="183" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A183" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>199</v>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="184" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B184" s="7" t="s">
         <v>200</v>
@@ -4606,7 +4603,7 @@
     </row>
     <row r="185" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>201</v>
@@ -4617,7 +4614,7 @@
     </row>
     <row r="186" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B186" s="7" t="s">
         <v>202</v>
@@ -4628,7 +4625,7 @@
     </row>
     <row r="187" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>203</v>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="188" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B188" s="7" t="s">
         <v>204</v>
@@ -4650,7 +4647,7 @@
     </row>
     <row r="189" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A189" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>205</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="190" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B190" s="7" t="s">
         <v>206</v>
@@ -4672,7 +4669,7 @@
     </row>
     <row r="191" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>207</v>
@@ -4683,7 +4680,7 @@
     </row>
     <row r="192" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B192" s="7" t="s">
         <v>208</v>
@@ -4694,7 +4691,7 @@
     </row>
     <row r="193" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>209</v>
@@ -4705,7 +4702,7 @@
     </row>
     <row r="194" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B194" s="7" t="s">
         <v>210</v>
@@ -4716,7 +4713,7 @@
     </row>
     <row r="195" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>211</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="196" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B196" s="7" t="s">
         <v>212</v>
@@ -4738,7 +4735,7 @@
     </row>
     <row r="197" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>213</v>
@@ -4749,7 +4746,7 @@
     </row>
     <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B198" s="7" t="s">
         <v>214</v>
@@ -4760,7 +4757,7 @@
     </row>
     <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>215</v>
@@ -4771,7 +4768,7 @@
     </row>
     <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B200" s="7" t="s">
         <v>216</v>
@@ -4782,7 +4779,7 @@
     </row>
     <row r="201" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>217</v>
@@ -4793,7 +4790,7 @@
     </row>
     <row r="202" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B202" s="7" t="s">
         <v>218</v>
@@ -4804,7 +4801,7 @@
     </row>
     <row r="203" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>219</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="204" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A204" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>220</v>
@@ -4826,7 +4823,7 @@
     </row>
     <row r="205" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A205" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>221</v>
@@ -4837,7 +4834,7 @@
     </row>
     <row r="206" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A206" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B206" s="7" t="s">
         <v>222</v>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="207" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A207" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>223</v>
@@ -4859,7 +4856,7 @@
     </row>
     <row r="208" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A208" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>224</v>
@@ -4870,7 +4867,7 @@
     </row>
     <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>225</v>
@@ -4881,7 +4878,7 @@
     </row>
     <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B210" s="7" t="s">
         <v>226</v>
@@ -4892,29 +4889,29 @@
     </row>
     <row r="211" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A211" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A212" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>511</v>
+        <v>549</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A213" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>228</v>
@@ -4925,7 +4922,7 @@
     </row>
     <row r="214" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A214" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B214" s="7" t="s">
         <v>229</v>
@@ -4936,7 +4933,7 @@
     </row>
     <row r="215" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B215" s="7" t="s">
         <v>230</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="216" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A216" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B216" s="7" t="s">
         <v>231</v>
@@ -4958,7 +4955,7 @@
     </row>
     <row r="217" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A217" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B217" s="7" t="s">
         <v>232</v>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="218" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A218" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>233</v>
@@ -4980,7 +4977,7 @@
     </row>
     <row r="219" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A219" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B219" s="7" t="s">
         <v>234</v>
@@ -4991,7 +4988,7 @@
     </row>
     <row r="220" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A220" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B220" s="7" t="s">
         <v>235</v>
@@ -5002,7 +4999,7 @@
     </row>
     <row r="221" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A221" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>236</v>
@@ -5013,7 +5010,7 @@
     </row>
     <row r="222" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A222" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B222" s="7" t="s">
         <v>237</v>
@@ -5024,7 +5021,7 @@
     </row>
     <row r="223" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A223" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>238</v>
@@ -5035,7 +5032,7 @@
     </row>
     <row r="224" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A224" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B224" s="7" t="s">
         <v>239</v>
@@ -5046,10 +5043,10 @@
     </row>
     <row r="225" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A225" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>562</v>
@@ -5057,10 +5054,10 @@
     </row>
     <row r="226" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A226" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>563</v>
@@ -5068,7 +5065,7 @@
     </row>
     <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B227" s="7" t="s">
         <v>241</v>
@@ -5079,7 +5076,7 @@
     </row>
     <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B228" s="7" t="s">
         <v>242</v>
@@ -5090,7 +5087,7 @@
     </row>
     <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B229" s="7" t="s">
         <v>243</v>
@@ -5101,7 +5098,7 @@
     </row>
     <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A230" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>244</v>
@@ -5112,7 +5109,7 @@
     </row>
     <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B231" s="7" t="s">
         <v>245</v>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B232" s="7" t="s">
         <v>246</v>
@@ -5134,7 +5131,7 @@
     </row>
     <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B233" s="7" t="s">
         <v>247</v>
@@ -5145,7 +5142,7 @@
     </row>
     <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B234" s="7" t="s">
         <v>248</v>
@@ -5156,7 +5153,7 @@
     </row>
     <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B235" s="7" t="s">
         <v>249</v>
@@ -5167,7 +5164,7 @@
     </row>
     <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B236" s="7" t="s">
         <v>250</v>
@@ -5178,7 +5175,7 @@
     </row>
     <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B237" s="7" t="s">
         <v>251</v>
@@ -5189,7 +5186,7 @@
     </row>
     <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B238" s="7" t="s">
         <v>252</v>
@@ -5200,7 +5197,7 @@
     </row>
     <row r="239" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A239" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B239" s="7" t="s">
         <v>253</v>
@@ -5211,7 +5208,7 @@
     </row>
     <row r="240" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A240" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B240" s="7" t="s">
         <v>254</v>
@@ -5222,7 +5219,7 @@
     </row>
     <row r="241" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A241" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B241" s="7" t="s">
         <v>255</v>
@@ -5233,7 +5230,7 @@
     </row>
     <row r="242" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B242" s="7" t="s">
         <v>256</v>
@@ -5244,7 +5241,7 @@
     </row>
     <row r="243" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A243" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B243" s="7" t="s">
         <v>257</v>
@@ -5255,7 +5252,7 @@
     </row>
     <row r="244" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A244" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B244" s="7" t="s">
         <v>258</v>
@@ -5266,7 +5263,7 @@
     </row>
     <row r="245" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B245" s="7" t="s">
         <v>259</v>
@@ -5277,7 +5274,7 @@
     </row>
     <row r="246" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A246" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B246" s="7" t="s">
         <v>260</v>
@@ -5288,7 +5285,7 @@
     </row>
     <row r="247" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B247" s="7" t="s">
         <v>261</v>
@@ -5299,7 +5296,7 @@
     </row>
     <row r="248" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B248" s="7" t="s">
         <v>262</v>
@@ -5310,7 +5307,7 @@
     </row>
     <row r="249" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A249" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B249" s="7" t="s">
         <v>263</v>
@@ -5321,7 +5318,7 @@
     </row>
     <row r="250" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A250" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B250" s="7" t="s">
         <v>264</v>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="251" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A251" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B251" s="7" t="s">
         <v>265</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="252" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A252" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B252" s="7" t="s">
         <v>266</v>
@@ -5354,7 +5351,7 @@
     </row>
     <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A253" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B253" s="7" t="s">
         <v>267</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="254" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A254" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B254" s="7" t="s">
         <v>268</v>
@@ -5376,7 +5373,7 @@
     </row>
     <row r="255" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A255" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B255" s="7" t="s">
         <v>269</v>
@@ -5387,7 +5384,7 @@
     </row>
     <row r="256" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A256" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B256" s="7" t="s">
         <v>270</v>
@@ -5398,7 +5395,7 @@
     </row>
     <row r="257" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A257" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B257" s="7" t="s">
         <v>271</v>
@@ -5409,7 +5406,7 @@
     </row>
     <row r="258" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A258" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B258" s="7" t="s">
         <v>272</v>
@@ -5420,7 +5417,7 @@
     </row>
     <row r="259" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A259" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B259" s="7" t="s">
         <v>273</v>
@@ -5431,7 +5428,7 @@
     </row>
     <row r="260" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A260" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B260" s="7" t="s">
         <v>274</v>
@@ -5442,7 +5439,7 @@
     </row>
     <row r="261" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A261" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B261" s="7" t="s">
         <v>275</v>
@@ -5453,7 +5450,7 @@
     </row>
     <row r="262" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A262" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B262" s="7" t="s">
         <v>276</v>
@@ -5464,7 +5461,7 @@
     </row>
     <row r="263" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A263" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B263" s="7" t="s">
         <v>277</v>
@@ -5475,7 +5472,7 @@
     </row>
     <row r="264" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A264" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B264" s="7" t="s">
         <v>278</v>
@@ -5486,7 +5483,7 @@
     </row>
     <row r="265" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A265" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B265" s="7" t="s">
         <v>279</v>
@@ -5497,7 +5494,7 @@
     </row>
     <row r="266" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A266" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B266" s="7" t="s">
         <v>280</v>
@@ -5508,7 +5505,7 @@
     </row>
     <row r="267" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A267" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B267" s="7" t="s">
         <v>281</v>
@@ -5519,40 +5516,40 @@
     </row>
     <row r="268" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A268" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B268" s="7" t="s">
         <v>282</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A269" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B269" s="7" t="s">
         <v>283</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A270" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B270" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A271" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>285</v>
@@ -5563,7 +5560,7 @@
     </row>
     <row r="272" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A272" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B272" s="7" t="s">
         <v>286</v>
@@ -5574,7 +5571,7 @@
     </row>
     <row r="273" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A273" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273" s="7" t="s">
         <v>287</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="274" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A274" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B274" s="7" t="s">
         <v>288</v>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="275" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A275" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B275" s="7" t="s">
         <v>289</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="276" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A276" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B276" s="7" t="s">
         <v>290</v>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A277" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B277" s="7" t="s">
         <v>291</v>
@@ -5629,7 +5626,7 @@
     </row>
     <row r="278" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A278" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B278" s="7" t="s">
         <v>292</v>
@@ -5640,7 +5637,7 @@
     </row>
     <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A279" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B279" s="7" t="s">
         <v>293</v>
@@ -5651,7 +5648,7 @@
     </row>
     <row r="280" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A280" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B280" s="7" t="s">
         <v>294</v>
@@ -5662,7 +5659,7 @@
     </row>
     <row r="281" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A281" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B281" s="7" t="s">
         <v>295</v>
@@ -5673,7 +5670,7 @@
     </row>
     <row r="282" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A282" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B282" s="7" t="s">
         <v>296</v>
@@ -5684,7 +5681,7 @@
     </row>
     <row r="283" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A283" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B283" s="7" t="s">
         <v>297</v>
@@ -5695,7 +5692,7 @@
     </row>
     <row r="284" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A284" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B284" s="7" t="s">
         <v>298</v>
@@ -5706,7 +5703,7 @@
     </row>
     <row r="285" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A285" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B285" s="7" t="s">
         <v>299</v>
@@ -5717,7 +5714,7 @@
     </row>
     <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A286" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B286" s="7" t="s">
         <v>300</v>
@@ -5728,40 +5725,40 @@
     </row>
     <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A287" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B287" s="7" t="s">
         <v>301</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>624</v>
+        <v>459</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A288" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>302</v>
+        <v>175</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A289" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>176</v>
+        <v>302</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>498</v>
+        <v>624</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A290" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B290" s="7" t="s">
         <v>303</v>
@@ -5772,7 +5769,7 @@
     </row>
     <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A291" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B291" s="7" t="s">
         <v>304</v>
@@ -5783,7 +5780,7 @@
     </row>
     <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A292" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B292" s="7" t="s">
         <v>305</v>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A293" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B293" s="7" t="s">
         <v>306</v>
@@ -5805,7 +5802,7 @@
     </row>
     <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A294" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B294" s="7" t="s">
         <v>307</v>
@@ -5816,7 +5813,7 @@
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B295" s="7" t="s">
         <v>308</v>
@@ -5827,7 +5824,7 @@
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B296" s="7" t="s">
         <v>309</v>
@@ -5838,7 +5835,7 @@
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B297" s="7" t="s">
         <v>310</v>
@@ -5849,7 +5846,7 @@
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B298" s="7" t="s">
         <v>311</v>
@@ -5860,7 +5857,7 @@
     </row>
     <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A299" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B299" s="7" t="s">
         <v>312</v>
@@ -5871,7 +5868,7 @@
     </row>
     <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A300" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B300" s="7" t="s">
         <v>313</v>
@@ -5882,7 +5879,7 @@
     </row>
     <row r="301" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A301" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B301" s="7" t="s">
         <v>314</v>
@@ -5893,7 +5890,7 @@
     </row>
     <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A302" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B302" s="7" t="s">
         <v>315</v>
@@ -5904,7 +5901,7 @@
     </row>
     <row r="303" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A303" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B303" s="7" t="s">
         <v>316</v>
@@ -5915,7 +5912,7 @@
     </row>
     <row r="304" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A304" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B304" s="7" t="s">
         <v>317</v>
@@ -5926,7 +5923,7 @@
     </row>
     <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B305" s="7" t="s">
         <v>318</v>
@@ -5937,7 +5934,7 @@
     </row>
     <row r="306" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A306" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B306" s="7" t="s">
         <v>319</v>
@@ -5948,7 +5945,7 @@
     </row>
     <row r="307" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A307" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B307" s="7" t="s">
         <v>320</v>
@@ -5959,7 +5956,7 @@
     </row>
     <row r="308" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A308" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B308" s="7" t="s">
         <v>321</v>
@@ -5970,7 +5967,7 @@
     </row>
     <row r="309" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A309" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B309" s="7" t="s">
         <v>322</v>
@@ -5981,7 +5978,7 @@
     </row>
     <row r="310" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A310" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B310" s="7" t="s">
         <v>323</v>
@@ -5992,7 +5989,7 @@
     </row>
     <row r="311" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A311" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B311" s="7" t="s">
         <v>324</v>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="312" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A312" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B312" s="7" t="s">
         <v>325</v>
@@ -6014,7 +6011,7 @@
     </row>
     <row r="313" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A313" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B313" s="7" t="s">
         <v>326</v>
@@ -6025,7 +6022,7 @@
     </row>
     <row r="314" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A314" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B314" s="7" t="s">
         <v>327</v>
@@ -6036,7 +6033,7 @@
     </row>
     <row r="315" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A315" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B315" s="7" t="s">
         <v>328</v>
@@ -6047,7 +6044,7 @@
     </row>
     <row r="316" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A316" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B316" s="7" t="s">
         <v>329</v>
@@ -6058,7 +6055,7 @@
     </row>
     <row r="317" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A317" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B317" s="7" t="s">
         <v>330</v>
@@ -6069,7 +6066,7 @@
     </row>
     <row r="318" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A318" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B318" s="7" t="s">
         <v>331</v>
@@ -6080,7 +6077,7 @@
     </row>
     <row r="319" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A319" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B319" s="7" t="s">
         <v>332</v>
@@ -6091,7 +6088,7 @@
     </row>
     <row r="320" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A320" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B320" s="7" t="s">
         <v>333</v>
@@ -6102,7 +6099,7 @@
     </row>
     <row r="321" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A321" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B321" s="7" t="s">
         <v>334</v>
@@ -6113,7 +6110,7 @@
     </row>
     <row r="322" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A322" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B322" s="7" t="s">
         <v>335</v>
@@ -6124,7 +6121,7 @@
     </row>
     <row r="323" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A323" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B323" s="7" t="s">
         <v>336</v>
@@ -6135,7 +6132,7 @@
     </row>
     <row r="324" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A324" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B324" s="7" t="s">
         <v>337</v>
@@ -6146,7 +6143,7 @@
     </row>
     <row r="325" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A325" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B325" s="7" t="s">
         <v>338</v>
@@ -6157,7 +6154,7 @@
     </row>
     <row r="326" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A326" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B326" s="7" t="s">
         <v>339</v>
@@ -6168,7 +6165,7 @@
     </row>
     <row r="327" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A327" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B327" s="7" t="s">
         <v>340</v>
@@ -6179,7 +6176,7 @@
     </row>
     <row r="328" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A328" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B328" s="7" t="s">
         <v>341</v>
@@ -6190,7 +6187,7 @@
     </row>
     <row r="329" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A329" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B329" s="7" t="s">
         <v>342</v>
@@ -6201,7 +6198,7 @@
     </row>
     <row r="330" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A330" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B330" s="7" t="s">
         <v>343</v>
@@ -6212,40 +6209,40 @@
     </row>
     <row r="331" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A331" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B331" s="7" t="s">
         <v>344</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A332" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B332" s="7" t="s">
         <v>345</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A333" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B333" s="7" t="s">
         <v>346</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A334" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B334" s="7" t="s">
         <v>347</v>
@@ -6256,7 +6253,7 @@
     </row>
     <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A335" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B335" s="7" t="s">
         <v>348</v>
@@ -6267,7 +6264,7 @@
     </row>
     <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A336" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B336" s="7" t="s">
         <v>349</v>
@@ -6278,7 +6275,7 @@
     </row>
     <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A337" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B337" s="7" t="s">
         <v>350</v>
@@ -6289,7 +6286,7 @@
     </row>
     <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A338" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B338" s="7" t="s">
         <v>351</v>
@@ -6300,7 +6297,7 @@
     </row>
     <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A339" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B339" s="7" t="s">
         <v>352</v>
@@ -6311,7 +6308,7 @@
     </row>
     <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A340" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B340" s="7" t="s">
         <v>353</v>
@@ -6322,7 +6319,7 @@
     </row>
     <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A341" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B341" s="7" t="s">
         <v>354</v>
@@ -6333,7 +6330,7 @@
     </row>
     <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A342" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B342" s="7" t="s">
         <v>355</v>
@@ -6344,7 +6341,7 @@
     </row>
     <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A343" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B343" s="7" t="s">
         <v>356</v>
@@ -6355,7 +6352,7 @@
     </row>
     <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A344" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B344" s="7" t="s">
         <v>357</v>
@@ -6366,7 +6363,7 @@
     </row>
     <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A345" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B345" s="7" t="s">
         <v>358</v>
@@ -6377,7 +6374,7 @@
     </row>
     <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A346" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B346" s="7" t="s">
         <v>359</v>
@@ -6388,7 +6385,7 @@
     </row>
     <row r="347" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A347" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B347" s="7" t="s">
         <v>360</v>
@@ -6399,7 +6396,7 @@
     </row>
     <row r="348" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A348" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B348" s="7" t="s">
         <v>361</v>
@@ -6410,7 +6407,7 @@
     </row>
     <row r="349" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A349" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B349" s="7" t="s">
         <v>362</v>
@@ -6421,7 +6418,7 @@
     </row>
     <row r="350" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A350" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B350" s="7" t="s">
         <v>363</v>
@@ -6432,7 +6429,7 @@
     </row>
     <row r="351" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A351" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B351" s="7" t="s">
         <v>364</v>
@@ -6443,7 +6440,7 @@
     </row>
     <row r="352" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A352" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B352" s="7" t="s">
         <v>365</v>
@@ -6454,7 +6451,7 @@
     </row>
     <row r="353" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A353" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B353" s="7" t="s">
         <v>366</v>
@@ -6465,7 +6462,7 @@
     </row>
     <row r="354" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A354" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B354" s="7" t="s">
         <v>367</v>
@@ -6476,7 +6473,7 @@
     </row>
     <row r="355" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A355" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B355" s="7" t="s">
         <v>368</v>
@@ -6487,7 +6484,7 @@
     </row>
     <row r="356" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A356" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B356" s="7" t="s">
         <v>369</v>
@@ -6498,7 +6495,7 @@
     </row>
     <row r="357" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A357" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B357" s="7" t="s">
         <v>370</v>
@@ -6509,7 +6506,7 @@
     </row>
     <row r="358" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A358" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>371</v>
@@ -6520,7 +6517,7 @@
     </row>
     <row r="359" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A359" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>372</v>
@@ -6531,7 +6528,7 @@
     </row>
     <row r="360" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A360" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B360" s="7" t="s">
         <v>373</v>
@@ -6542,7 +6539,7 @@
     </row>
     <row r="361" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A361" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B361" s="7" t="s">
         <v>374</v>
@@ -6553,7 +6550,7 @@
     </row>
     <row r="362" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A362" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B362" s="7" t="s">
         <v>375</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="363" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A363" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B363" s="7" t="s">
         <v>376</v>
@@ -6575,7 +6572,7 @@
     </row>
     <row r="364" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A364" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B364" s="7" t="s">
         <v>377</v>
@@ -6586,7 +6583,7 @@
     </row>
     <row r="365" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A365" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B365" s="7" t="s">
         <v>378</v>
@@ -6597,36 +6594,28 @@
     </row>
     <row r="366" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A366" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B366" s="7" t="s">
         <v>379</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A367" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B367" s="7" t="s">
         <v>380</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A368" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B368" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>702</v>
-      </c>
+      <c r="A368" s="3"/>
     </row>
     <row r="369" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A369" s="3"/>
@@ -6648,9 +6637,6 @@
     </row>
     <row r="375" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A375" s="3"/>
-    </row>
-    <row r="376" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A376" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/src/main/resources/keywords.xlsx
+++ b/src/main/resources/keywords.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardo/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardopailemilla/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC8A7E-1140-AB46-BE65-03C75F9446C7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CEA1E2C-A21A-0B4E-B9CA-46A4A15E65A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="701">
   <si>
     <t>equipo</t>
   </si>
@@ -525,9 +525,6 @@
     <t>Eryin Sanhueza</t>
   </si>
   <si>
-    <t>Joaquín García</t>
-  </si>
-  <si>
     <t>Carlos Labrín</t>
   </si>
   <si>
@@ -1489,9 +1486,6 @@
   </si>
   <si>
     <t>eryin</t>
-  </si>
-  <si>
-    <t>juaquin garcia</t>
   </si>
   <si>
     <t>carlos labrin</t>
@@ -2525,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2923,7 +2917,7 @@
         <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -3047,7 +3041,7 @@
         <v>66</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3058,7 +3052,7 @@
         <v>67</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3069,7 +3063,7 @@
         <v>68</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3080,7 +3074,7 @@
         <v>69</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3091,7 +3085,7 @@
         <v>70</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" x14ac:dyDescent="0.15">
@@ -3102,7 +3096,7 @@
         <v>71</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3113,7 +3107,7 @@
         <v>72</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3124,7 +3118,7 @@
         <v>73</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3135,7 +3129,7 @@
         <v>74</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3146,7 +3140,7 @@
         <v>75</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3157,7 +3151,7 @@
         <v>76</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3168,7 +3162,7 @@
         <v>77</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3179,7 +3173,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3190,7 +3184,7 @@
         <v>79</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3201,7 +3195,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3212,7 +3206,7 @@
         <v>48</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3223,7 +3217,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3234,7 +3228,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3245,7 +3239,7 @@
         <v>82</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3256,7 +3250,7 @@
         <v>83</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3267,7 +3261,7 @@
         <v>84</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3278,7 +3272,7 @@
         <v>85</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3289,7 +3283,7 @@
         <v>86</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3300,7 +3294,7 @@
         <v>87</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3311,7 +3305,7 @@
         <v>88</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3322,7 +3316,7 @@
         <v>89</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3333,7 +3327,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3344,7 +3338,7 @@
         <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3355,7 +3349,7 @@
         <v>92</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3366,7 +3360,7 @@
         <v>93</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3377,7 +3371,7 @@
         <v>94</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3388,7 +3382,7 @@
         <v>95</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3399,7 +3393,7 @@
         <v>96</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3410,7 +3404,7 @@
         <v>97</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3421,7 +3415,7 @@
         <v>98</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3432,7 +3426,7 @@
         <v>99</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3443,7 +3437,7 @@
         <v>100</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3454,7 +3448,7 @@
         <v>101</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3465,7 +3459,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3476,7 +3470,7 @@
         <v>103</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3487,7 +3481,7 @@
         <v>104</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3498,7 +3492,7 @@
         <v>105</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3509,7 +3503,7 @@
         <v>106</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3520,7 +3514,7 @@
         <v>107</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3531,7 +3525,7 @@
         <v>108</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3542,7 +3536,7 @@
         <v>109</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3553,7 +3547,7 @@
         <v>110</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3564,7 +3558,7 @@
         <v>111</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3575,7 +3569,7 @@
         <v>51</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3586,7 +3580,7 @@
         <v>112</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3597,7 +3591,7 @@
         <v>53</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3608,7 +3602,7 @@
         <v>113</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3619,7 +3613,7 @@
         <v>114</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3630,7 +3624,7 @@
         <v>115</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3641,7 +3635,7 @@
         <v>116</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3652,7 +3646,7 @@
         <v>117</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3663,7 +3657,7 @@
         <v>118</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3674,7 +3668,7 @@
         <v>55</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3685,7 +3679,7 @@
         <v>119</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3696,7 +3690,7 @@
         <v>120</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3707,7 +3701,7 @@
         <v>57</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3718,7 +3712,7 @@
         <v>121</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3729,7 +3723,7 @@
         <v>122</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3740,7 +3734,7 @@
         <v>59</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3751,7 +3745,7 @@
         <v>123</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3762,7 +3756,7 @@
         <v>124</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3773,7 +3767,7 @@
         <v>125</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3784,7 +3778,7 @@
         <v>126</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3795,7 +3789,7 @@
         <v>127</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3806,7 +3800,7 @@
         <v>128</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3817,7 +3811,7 @@
         <v>129</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3828,7 +3822,7 @@
         <v>130</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3839,7 +3833,7 @@
         <v>131</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3850,7 +3844,7 @@
         <v>132</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3861,7 +3855,7 @@
         <v>133</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3872,7 +3866,7 @@
         <v>134</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3883,7 +3877,7 @@
         <v>135</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3894,7 +3888,7 @@
         <v>136</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3905,7 +3899,7 @@
         <v>137</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3916,7 +3910,7 @@
         <v>138</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3927,7 +3921,7 @@
         <v>139</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3938,7 +3932,7 @@
         <v>140</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3949,7 +3943,7 @@
         <v>141</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3960,7 +3954,7 @@
         <v>142</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3971,7 +3965,7 @@
         <v>143</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3982,7 +3976,7 @@
         <v>144</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -3993,7 +3987,7 @@
         <v>145</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4004,7 +3998,7 @@
         <v>146</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4015,7 +4009,7 @@
         <v>147</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4026,7 +4020,7 @@
         <v>148</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4037,7 +4031,7 @@
         <v>149</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4048,7 +4042,7 @@
         <v>150</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4059,7 +4053,7 @@
         <v>151</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4070,7 +4064,7 @@
         <v>152</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4081,7 +4075,7 @@
         <v>153</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4092,7 +4086,7 @@
         <v>154</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4103,7 +4097,7 @@
         <v>155</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4114,7 +4108,7 @@
         <v>156</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4125,7 +4119,7 @@
         <v>157</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4136,7 +4130,7 @@
         <v>158</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4147,7 +4141,7 @@
         <v>159</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4158,7 +4152,7 @@
         <v>160</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4169,7 +4163,7 @@
         <v>161</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4180,7 +4174,7 @@
         <v>162</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4191,7 +4185,7 @@
         <v>163</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4202,7 +4196,7 @@
         <v>164</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4213,7 +4207,7 @@
         <v>165</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4224,7 +4218,7 @@
         <v>166</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4235,7 +4229,7 @@
         <v>167</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4246,7 +4240,7 @@
         <v>168</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4257,7 +4251,7 @@
         <v>169</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4268,7 +4262,7 @@
         <v>170</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4279,7 +4273,7 @@
         <v>171</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4290,7 +4284,7 @@
         <v>172</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4301,7 +4295,7 @@
         <v>173</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4312,7 +4306,7 @@
         <v>174</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4323,7 +4317,7 @@
         <v>175</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4334,7 +4328,7 @@
         <v>176</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4345,7 +4339,7 @@
         <v>177</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4356,7 +4350,7 @@
         <v>178</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4367,7 +4361,7 @@
         <v>179</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4378,7 +4372,7 @@
         <v>180</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4389,7 +4383,7 @@
         <v>181</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4400,7 +4394,7 @@
         <v>182</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4411,7 +4405,7 @@
         <v>183</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4422,7 +4416,7 @@
         <v>184</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4433,7 +4427,7 @@
         <v>185</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4444,7 +4438,7 @@
         <v>186</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4455,7 +4449,7 @@
         <v>187</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4466,7 +4460,7 @@
         <v>188</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4477,7 +4471,7 @@
         <v>189</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4488,7 +4482,7 @@
         <v>190</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4499,7 +4493,7 @@
         <v>191</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4510,7 +4504,7 @@
         <v>192</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4521,7 +4515,7 @@
         <v>193</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4532,7 +4526,7 @@
         <v>194</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4543,7 +4537,7 @@
         <v>195</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4554,7 +4548,7 @@
         <v>196</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4565,7 +4559,7 @@
         <v>197</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4576,7 +4570,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4587,7 +4581,7 @@
         <v>199</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4598,7 +4592,7 @@
         <v>200</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4609,7 +4603,7 @@
         <v>201</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4620,7 +4614,7 @@
         <v>202</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4631,7 +4625,7 @@
         <v>203</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4642,7 +4636,7 @@
         <v>204</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4653,7 +4647,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4664,7 +4658,7 @@
         <v>206</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4675,7 +4669,7 @@
         <v>207</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4686,7 +4680,7 @@
         <v>208</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4697,7 +4691,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4708,7 +4702,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4719,7 +4713,7 @@
         <v>211</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4730,7 +4724,7 @@
         <v>212</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4741,7 +4735,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4752,7 +4746,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4763,7 +4757,7 @@
         <v>215</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4774,7 +4768,7 @@
         <v>216</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4785,7 +4779,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4796,7 +4790,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4807,7 +4801,7 @@
         <v>219</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4818,7 +4812,7 @@
         <v>220</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4829,7 +4823,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4840,7 +4834,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4851,7 +4845,7 @@
         <v>223</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4862,7 +4856,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4873,7 +4867,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4881,10 +4875,10 @@
         <v>47</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4892,10 +4886,10 @@
         <v>47</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>510</v>
+        <v>547</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4906,7 +4900,7 @@
         <v>227</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4917,7 +4911,7 @@
         <v>228</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4928,7 +4922,7 @@
         <v>229</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4939,7 +4933,7 @@
         <v>230</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4950,7 +4944,7 @@
         <v>231</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4961,7 +4955,7 @@
         <v>232</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4972,7 +4966,7 @@
         <v>233</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4983,7 +4977,7 @@
         <v>234</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -4994,7 +4988,7 @@
         <v>235</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5005,7 +4999,7 @@
         <v>236</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5016,7 +5010,7 @@
         <v>237</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5027,7 +5021,7 @@
         <v>238</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5035,10 +5029,10 @@
         <v>47</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5046,10 +5040,10 @@
         <v>47</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5060,7 +5054,7 @@
         <v>240</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5071,7 +5065,7 @@
         <v>241</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5082,7 +5076,7 @@
         <v>242</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5093,7 +5087,7 @@
         <v>243</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5104,7 +5098,7 @@
         <v>244</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5115,7 +5109,7 @@
         <v>245</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5126,7 +5120,7 @@
         <v>246</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5137,7 +5131,7 @@
         <v>247</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5148,7 +5142,7 @@
         <v>248</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5159,7 +5153,7 @@
         <v>249</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5170,7 +5164,7 @@
         <v>250</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5181,7 +5175,7 @@
         <v>251</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5192,7 +5186,7 @@
         <v>252</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5203,7 +5197,7 @@
         <v>253</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5214,7 +5208,7 @@
         <v>254</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5225,7 +5219,7 @@
         <v>255</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5236,7 +5230,7 @@
         <v>256</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5247,7 +5241,7 @@
         <v>257</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5258,7 +5252,7 @@
         <v>258</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5269,7 +5263,7 @@
         <v>259</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5280,7 +5274,7 @@
         <v>260</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5291,7 +5285,7 @@
         <v>261</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5302,7 +5296,7 @@
         <v>262</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5313,7 +5307,7 @@
         <v>263</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5324,7 +5318,7 @@
         <v>264</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5335,7 +5329,7 @@
         <v>265</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5346,7 +5340,7 @@
         <v>266</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5357,7 +5351,7 @@
         <v>267</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5368,7 +5362,7 @@
         <v>268</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5379,7 +5373,7 @@
         <v>269</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5390,7 +5384,7 @@
         <v>270</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5401,7 +5395,7 @@
         <v>271</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5412,7 +5406,7 @@
         <v>272</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5423,7 +5417,7 @@
         <v>273</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5434,7 +5428,7 @@
         <v>274</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5445,7 +5439,7 @@
         <v>275</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5456,7 +5450,7 @@
         <v>276</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5467,7 +5461,7 @@
         <v>277</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5478,7 +5472,7 @@
         <v>278</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5489,7 +5483,7 @@
         <v>279</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5500,7 +5494,7 @@
         <v>280</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5522,7 +5516,7 @@
         <v>282</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5544,7 +5538,7 @@
         <v>284</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5555,7 +5549,7 @@
         <v>285</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5566,7 +5560,7 @@
         <v>286</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5577,7 +5571,7 @@
         <v>287</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5588,7 +5582,7 @@
         <v>288</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5599,7 +5593,7 @@
         <v>289</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5610,7 +5604,7 @@
         <v>290</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5621,7 +5615,7 @@
         <v>291</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5632,7 +5626,7 @@
         <v>292</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5643,7 +5637,7 @@
         <v>293</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5654,7 +5648,7 @@
         <v>294</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5665,7 +5659,7 @@
         <v>295</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5676,7 +5670,7 @@
         <v>296</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5687,7 +5681,7 @@
         <v>297</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5698,7 +5692,7 @@
         <v>298</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5709,7 +5703,7 @@
         <v>299</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5720,7 +5714,7 @@
         <v>300</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>623</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5728,10 +5722,10 @@
         <v>47</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>301</v>
+        <v>174</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5739,10 +5733,10 @@
         <v>47</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>497</v>
+        <v>622</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5753,7 +5747,7 @@
         <v>302</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5764,7 +5758,7 @@
         <v>303</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5775,7 +5769,7 @@
         <v>304</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5786,7 +5780,7 @@
         <v>305</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5797,7 +5791,7 @@
         <v>306</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5808,7 +5802,7 @@
         <v>307</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5819,7 +5813,7 @@
         <v>308</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5830,7 +5824,7 @@
         <v>309</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5841,7 +5835,7 @@
         <v>310</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5852,7 +5846,7 @@
         <v>311</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5863,7 +5857,7 @@
         <v>312</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5874,7 +5868,7 @@
         <v>313</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5885,7 +5879,7 @@
         <v>314</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5896,7 +5890,7 @@
         <v>315</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5907,7 +5901,7 @@
         <v>316</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5918,7 +5912,7 @@
         <v>317</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5929,7 +5923,7 @@
         <v>318</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5940,7 +5934,7 @@
         <v>319</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5951,7 +5945,7 @@
         <v>320</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5962,7 +5956,7 @@
         <v>321</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5973,7 +5967,7 @@
         <v>322</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5984,7 +5978,7 @@
         <v>323</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -5995,7 +5989,7 @@
         <v>324</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6006,7 +6000,7 @@
         <v>325</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6017,7 +6011,7 @@
         <v>326</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6028,7 +6022,7 @@
         <v>327</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6039,7 +6033,7 @@
         <v>328</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6050,7 +6044,7 @@
         <v>329</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6061,7 +6055,7 @@
         <v>330</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6072,7 +6066,7 @@
         <v>331</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6083,7 +6077,7 @@
         <v>332</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6094,7 +6088,7 @@
         <v>333</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6105,7 +6099,7 @@
         <v>334</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6116,7 +6110,7 @@
         <v>335</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6127,7 +6121,7 @@
         <v>336</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6138,7 +6132,7 @@
         <v>337</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6149,7 +6143,7 @@
         <v>338</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6160,7 +6154,7 @@
         <v>339</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6171,7 +6165,7 @@
         <v>340</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6182,7 +6176,7 @@
         <v>341</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6193,7 +6187,7 @@
         <v>342</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6215,7 +6209,7 @@
         <v>344</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6237,7 +6231,7 @@
         <v>346</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6248,7 +6242,7 @@
         <v>347</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6259,7 +6253,7 @@
         <v>348</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6270,7 +6264,7 @@
         <v>349</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="337" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6281,7 +6275,7 @@
         <v>350</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6292,7 +6286,7 @@
         <v>351</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6303,7 +6297,7 @@
         <v>352</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6314,7 +6308,7 @@
         <v>353</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6325,7 +6319,7 @@
         <v>354</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6336,7 +6330,7 @@
         <v>355</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6347,7 +6341,7 @@
         <v>356</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6358,7 +6352,7 @@
         <v>357</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6369,7 +6363,7 @@
         <v>358</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6380,7 +6374,7 @@
         <v>359</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6391,7 +6385,7 @@
         <v>360</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6402,7 +6396,7 @@
         <v>361</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6413,7 +6407,7 @@
         <v>362</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6424,7 +6418,7 @@
         <v>363</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6435,7 +6429,7 @@
         <v>364</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6446,7 +6440,7 @@
         <v>365</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6457,7 +6451,7 @@
         <v>366</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6468,7 +6462,7 @@
         <v>367</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6479,7 +6473,7 @@
         <v>368</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6490,7 +6484,7 @@
         <v>369</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6501,7 +6495,7 @@
         <v>370</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6512,7 +6506,7 @@
         <v>371</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6523,7 +6517,7 @@
         <v>372</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6534,7 +6528,7 @@
         <v>373</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6545,7 +6539,7 @@
         <v>374</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6556,7 +6550,7 @@
         <v>375</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6567,7 +6561,7 @@
         <v>376</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6578,7 +6572,7 @@
         <v>377</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6589,7 +6583,7 @@
         <v>378</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="14" x14ac:dyDescent="0.15">
@@ -6600,19 +6594,11 @@
         <v>379</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="14" x14ac:dyDescent="0.15">
-      <c r="A367" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B367" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>701</v>
-      </c>
+      <c r="A367" s="3"/>
     </row>
     <row r="368" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A368" s="3"/>
@@ -6634,9 +6620,6 @@
     </row>
     <row r="374" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A374" s="3"/>
-    </row>
-    <row r="375" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A375" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
